--- a/data/expt_2/raw_transcripts/game72.xlsx
+++ b/data/expt_2/raw_transcripts/game72.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="MVI_0093.MP4.csv" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="MVI_0093.MP4.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="326">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -694,9 +694,15 @@
     <t xml:space="preserve">A boat. a big big boat</t>
   </si>
   <si>
+    <t xml:space="preserve">a big boat</t>
+  </si>
+  <si>
     <t xml:space="preserve">A person in a boat.</t>
   </si>
   <si>
+    <t xml:space="preserve">a person in a boat</t>
+  </si>
+  <si>
     <t xml:space="preserve">That one?</t>
   </si>
   <si>
@@ -836,9 +842,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hilly! Hooray!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hilly</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, do you want to try your best to guess, [id131]?</t>
@@ -1077,16 +1080,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1102,5933 +1109,6043 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z382"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H189" activeCellId="0" sqref="H189"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="H311" activeCellId="0" sqref="H311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="37.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="55.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="37.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>4240</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>4240</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>5240</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>5240</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>7240</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>7240</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>8240</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>8240</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>9240</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>9240</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>11760</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>11760</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>12760</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>12760</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>15760</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>15760</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>17880</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>17880</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>20400</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>20400</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>24400</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>24400</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>27400</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>27400</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>28400</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>28400</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>29400</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>29400</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="2" t="n">
         <v>30400</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>30400</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="2" t="n">
         <v>31400</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>31400</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="2" t="n">
         <v>35400</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>35400</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="2" t="n">
         <v>39400</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>39400</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>41400</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>41400</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="2" t="n">
         <v>43400</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>43400</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="2" t="n">
         <v>45400</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>45400</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <v>47400</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>47400</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="2" t="n">
         <v>50400</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>50400</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="2" t="n">
         <v>56400</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>56400</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="2" t="n">
         <v>58400</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>58400</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="2" t="n">
         <v>59400</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>59400</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="2" t="n">
         <v>61400</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>61400</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="2" t="n">
         <v>64400</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>64400</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="2" t="n">
         <v>66400</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>66400</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="2" t="n">
         <v>70400</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>70400</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="2" t="n">
         <v>73400</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>73400</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="2" t="n">
         <v>74400</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>74400</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="2" t="n">
         <v>77400</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>77400</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="2" t="n">
         <v>79400</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>79400</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="2" t="n">
         <v>83400</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>83400</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="2" t="n">
         <v>85400</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>85400</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="2" t="n">
         <v>86400</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>86400</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="2" t="n">
         <v>87400</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>87400</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="2" t="n">
         <v>89400</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>89400</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="2" t="n">
         <v>94400</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>94400</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="2" t="n">
         <v>95400</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>95400</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="2" t="n">
         <v>98400</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>98400</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="2" t="n">
         <v>103400</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>103400</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="2" t="n">
         <v>106060</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>103400</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="2" t="n">
         <v>106060</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>106060</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="2" t="n">
         <v>107640</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>107640</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="2" t="n">
         <v>110240</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>110240</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="2" t="n">
         <v>112680</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>112680</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="2" t="n">
         <v>115080</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>115080</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="2" t="n">
         <v>116080</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>116080</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="2" t="n">
         <v>118720</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>118720</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="2" t="n">
         <v>120280</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>120280</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="2" t="n">
         <v>121660</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>121660</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="2" t="n">
         <v>124940</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>124940</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="2" t="n">
         <v>128060</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>128420</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="2" t="n">
         <v>130500</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>131340</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="2" t="n">
         <v>134540</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>134840</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="2" t="n">
         <v>137620</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>137620</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="2" t="n">
         <v>139240</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>139840</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="2" t="n">
         <v>141760</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>142060</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="2" t="n">
         <v>143520</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="2" t="n">
         <v>143920</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="2" t="n">
         <v>146080</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="2" t="n">
         <v>146080</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="2" t="n">
         <v>150300</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="2" t="n">
         <v>150840</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="2" t="n">
         <v>151220</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="2" t="n">
         <v>151660</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="2" t="n">
         <v>156340</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="2" t="n">
         <v>156680</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="2" t="n">
         <v>159240</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>159520</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="2" t="n">
         <v>162180</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="2" t="n">
         <v>162920</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="2" t="n">
         <v>163320</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>163440</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="2" t="n">
         <v>164660</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="2" t="n">
         <v>164860</v>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B71" s="2" t="n">
         <v>165160</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>165580</v>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B72" s="2" t="n">
         <v>168940</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>172180</v>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="B73" s="2" t="n">
         <v>172920</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="2" t="n">
         <v>172920</v>
       </c>
-      <c r="B74" s="1" t="n">
+      <c r="B74" s="2" t="n">
         <v>176040</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="2" t="n">
         <v>176040</v>
       </c>
-      <c r="B75" s="1" t="n">
+      <c r="B75" s="2" t="n">
         <v>178100</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="2" t="n">
         <v>181280</v>
       </c>
-      <c r="B76" s="1" t="n">
+      <c r="B76" s="2" t="n">
         <v>182240</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="2" t="n">
         <v>182820</v>
       </c>
-      <c r="B77" s="1" t="n">
+      <c r="B77" s="2" t="n">
         <v>186260</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="2" t="n">
         <v>186260</v>
       </c>
-      <c r="B78" s="1" t="n">
+      <c r="B78" s="2" t="n">
         <v>187260</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="2" t="n">
         <v>187260</v>
       </c>
-      <c r="B79" s="1" t="n">
+      <c r="B79" s="2" t="n">
         <v>190720</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="2" t="n">
         <v>190720</v>
       </c>
-      <c r="B80" s="1" t="n">
+      <c r="B80" s="2" t="n">
         <v>191960</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="2" t="n">
         <v>191960</v>
       </c>
-      <c r="B81" s="1" t="n">
+      <c r="B81" s="2" t="n">
         <v>193760</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="2" t="n">
         <v>193760</v>
       </c>
-      <c r="B82" s="1" t="n">
+      <c r="B82" s="2" t="n">
         <v>195680</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="2" t="n">
         <v>195680</v>
       </c>
-      <c r="B83" s="1" t="n">
+      <c r="B83" s="2" t="n">
         <v>196680</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="2" t="n">
         <v>196680</v>
       </c>
-      <c r="B84" s="1" t="n">
+      <c r="B84" s="2" t="n">
         <v>199680</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="2" t="n">
         <v>199680</v>
       </c>
-      <c r="B85" s="1" t="n">
+      <c r="B85" s="2" t="n">
         <v>200680</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="2" t="n">
         <v>200680</v>
       </c>
-      <c r="B86" s="1" t="n">
+      <c r="B86" s="2" t="n">
         <v>202680</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="1" t="n">
+      <c r="D86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="2" t="n">
         <v>200680</v>
       </c>
-      <c r="B87" s="1" t="n">
+      <c r="B87" s="2" t="n">
         <v>202680</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1" t="s">
+      <c r="D87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="2" t="n">
         <v>202680</v>
       </c>
-      <c r="B88" s="1" t="n">
+      <c r="B88" s="2" t="n">
         <v>204680</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="2" t="n">
         <v>202680</v>
       </c>
-      <c r="B89" s="1" t="n">
+      <c r="B89" s="2" t="n">
         <v>204680</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" s="1" t="s">
+      <c r="D89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="2" t="n">
         <v>204680</v>
       </c>
-      <c r="B90" s="1" t="n">
+      <c r="B90" s="2" t="n">
         <v>207680</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="2" t="n">
         <v>207680</v>
       </c>
-      <c r="B91" s="1" t="n">
+      <c r="B91" s="2" t="n">
         <v>209680</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="2" t="n">
         <v>209680</v>
       </c>
-      <c r="B92" s="1" t="n">
+      <c r="B92" s="2" t="n">
         <v>213680</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="2" t="n">
         <v>213680</v>
       </c>
-      <c r="B93" s="1" t="n">
+      <c r="B93" s="2" t="n">
         <v>216680</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="2" t="n">
         <v>216680</v>
       </c>
-      <c r="B94" s="1" t="n">
+      <c r="B94" s="2" t="n">
         <v>220680</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="2" t="n">
         <v>220680</v>
       </c>
-      <c r="B95" s="1" t="n">
+      <c r="B95" s="2" t="n">
         <v>223680</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="2" t="n">
         <v>223680</v>
       </c>
-      <c r="B96" s="1" t="n">
+      <c r="B96" s="2" t="n">
         <v>228680</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="2" t="n">
         <v>223680</v>
       </c>
-      <c r="B97" s="1" t="n">
+      <c r="B97" s="2" t="n">
         <v>228680</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F97" s="1" t="s">
+      <c r="D97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="2" t="n">
         <v>228680</v>
       </c>
-      <c r="B98" s="1" t="n">
+      <c r="B98" s="2" t="n">
         <v>233680</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="2" t="n">
         <v>228680</v>
       </c>
-      <c r="B99" s="1" t="n">
+      <c r="B99" s="2" t="n">
         <v>233680</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="1" t="s">
+      <c r="D99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="2" t="n">
         <v>233680</v>
       </c>
-      <c r="B100" s="1" t="n">
+      <c r="B100" s="2" t="n">
         <v>238680</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="2" t="n">
         <v>238680</v>
       </c>
-      <c r="B101" s="1" t="n">
+      <c r="B101" s="2" t="n">
         <v>243680</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="2" t="n">
         <v>238680</v>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B102" s="2" t="n">
         <v>243680</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="2" t="n">
         <v>243680</v>
       </c>
-      <c r="B103" s="1" t="n">
+      <c r="B103" s="2" t="n">
         <v>245680</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="1" t="s">
+      <c r="D103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="2" t="n">
         <v>245680</v>
       </c>
-      <c r="B104" s="1" t="n">
+      <c r="B104" s="2" t="n">
         <v>252680</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="2" t="n">
         <v>252680</v>
       </c>
-      <c r="B105" s="1" t="n">
+      <c r="B105" s="2" t="n">
         <v>256680</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="2" t="n">
         <v>252680</v>
       </c>
-      <c r="B106" s="1" t="n">
+      <c r="B106" s="2" t="n">
         <v>256680</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H106" s="1" t="s">
+      <c r="D106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="2" t="n">
         <v>256680</v>
       </c>
-      <c r="B107" s="1" t="n">
+      <c r="B107" s="2" t="n">
         <v>259680</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="2" t="n">
         <v>259680</v>
       </c>
-      <c r="B108" s="1" t="n">
+      <c r="B108" s="2" t="n">
         <v>260680</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="2" t="n">
         <v>260680</v>
       </c>
-      <c r="B109" s="1" t="n">
+      <c r="B109" s="2" t="n">
         <v>262680</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="2" t="n">
         <v>262680</v>
       </c>
-      <c r="B110" s="1" t="n">
+      <c r="B110" s="2" t="n">
         <v>263680</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F110" s="1" t="s">
+      <c r="D110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="2" t="n">
         <v>263680</v>
       </c>
-      <c r="B111" s="1" t="n">
+      <c r="B111" s="2" t="n">
         <v>264680</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="2" t="n">
         <v>264680</v>
       </c>
-      <c r="B112" s="1" t="n">
+      <c r="B112" s="2" t="n">
         <v>266680</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" s="1" t="s">
+      <c r="D112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="2" t="n">
         <v>266680</v>
       </c>
-      <c r="B113" s="1" t="n">
+      <c r="B113" s="2" t="n">
         <v>268680</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="2" t="n">
         <v>268680</v>
       </c>
-      <c r="B114" s="1" t="n">
+      <c r="B114" s="2" t="n">
         <v>270680</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="1" t="n">
+      <c r="D114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="2" t="n">
         <v>270680</v>
       </c>
-      <c r="B115" s="1" t="n">
+      <c r="B115" s="2" t="n">
         <v>271680</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="2" t="n">
         <v>271680</v>
       </c>
-      <c r="B116" s="1" t="n">
+      <c r="B116" s="2" t="n">
         <v>276680</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="2" t="n">
         <v>276680</v>
       </c>
-      <c r="B117" s="1" t="n">
+      <c r="B117" s="2" t="n">
         <v>278680</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="2" t="n">
         <v>278680</v>
       </c>
-      <c r="B118" s="1" t="n">
+      <c r="B118" s="2" t="n">
         <v>281680</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H118" s="1" t="s">
+      <c r="F118" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H118" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="2" t="n">
         <v>281680</v>
       </c>
-      <c r="B119" s="1" t="n">
+      <c r="B119" s="2" t="n">
         <v>282680</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="2" t="n">
         <v>282680</v>
       </c>
-      <c r="B120" s="1" t="n">
+      <c r="B120" s="2" t="n">
         <v>284680</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F120" s="1" t="s">
+      <c r="D120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="2" t="n">
         <v>284680</v>
       </c>
-      <c r="B121" s="1" t="n">
+      <c r="B121" s="2" t="n">
         <v>287680</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="2" t="n">
         <v>287680</v>
       </c>
-      <c r="B122" s="1" t="n">
+      <c r="B122" s="2" t="n">
         <v>290680</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="2" t="n">
         <v>290680</v>
       </c>
-      <c r="B123" s="1" t="n">
+      <c r="B123" s="2" t="n">
         <v>292680</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F123" s="1" t="s">
+      <c r="D123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="2" t="n">
         <v>292680</v>
       </c>
-      <c r="B124" s="1" t="n">
+      <c r="B124" s="2" t="n">
         <v>294680</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F124" s="1" t="s">
+      <c r="D124" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="2" t="n">
         <v>294680</v>
       </c>
-      <c r="B125" s="1" t="n">
+      <c r="B125" s="2" t="n">
         <v>295680</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F125" s="1" t="s">
+      <c r="D125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="2" t="n">
         <v>295680</v>
       </c>
-      <c r="B126" s="1" t="n">
+      <c r="B126" s="2" t="n">
         <v>298680</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F126" s="1" t="s">
+      <c r="D126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="2" t="n">
         <v>298680</v>
       </c>
-      <c r="B127" s="1" t="n">
+      <c r="B127" s="2" t="n">
         <v>299680</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127" s="1" t="s">
+      <c r="D127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="2" t="n">
         <v>299680</v>
       </c>
-      <c r="B128" s="1" t="n">
+      <c r="B128" s="2" t="n">
         <v>302680</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="2" t="n">
         <v>302680</v>
       </c>
-      <c r="B129" s="1" t="n">
+      <c r="B129" s="2" t="n">
         <v>303680</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F129" s="1" t="s">
+      <c r="D129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="2" t="n">
         <v>303680</v>
       </c>
-      <c r="B130" s="1" t="n">
+      <c r="B130" s="2" t="n">
         <v>304680</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F130" s="1" t="s">
+      <c r="D130" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="2" t="n">
         <v>304680</v>
       </c>
-      <c r="B131" s="1" t="n">
+      <c r="B131" s="2" t="n">
         <v>306680</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="2" t="n">
         <v>306680</v>
       </c>
-      <c r="B132" s="1" t="n">
+      <c r="B132" s="2" t="n">
         <v>307680</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F132" s="1" t="s">
+      <c r="D132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="2" t="n">
         <v>307680</v>
       </c>
-      <c r="B133" s="1" t="n">
+      <c r="B133" s="2" t="n">
         <v>308680</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F133" s="1" t="s">
+      <c r="D133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="2" t="n">
         <v>308680</v>
       </c>
-      <c r="B134" s="1" t="n">
+      <c r="B134" s="2" t="n">
         <v>309680</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="2" t="n">
         <v>309680</v>
       </c>
-      <c r="B135" s="1" t="n">
+      <c r="B135" s="2" t="n">
         <v>310680</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" s="1" t="n">
+      <c r="D135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="2" t="n">
         <v>310680</v>
       </c>
-      <c r="B136" s="1" t="n">
+      <c r="B136" s="2" t="n">
         <v>311680</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="2" t="n">
         <v>311680</v>
       </c>
-      <c r="B137" s="1" t="n">
+      <c r="B137" s="2" t="n">
         <v>312680</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="2" t="n">
         <v>312680</v>
       </c>
-      <c r="B138" s="1" t="n">
+      <c r="B138" s="2" t="n">
         <v>315680</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="2" t="n">
         <v>315680</v>
       </c>
-      <c r="B139" s="1" t="n">
+      <c r="B139" s="2" t="n">
         <v>317680</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F139" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="2" t="n">
         <v>317680</v>
       </c>
-      <c r="B140" s="1" t="n">
+      <c r="B140" s="2" t="n">
         <v>318680</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H140" s="1" t="s">
+      <c r="D140" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H140" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="2" t="n">
         <v>318680</v>
       </c>
-      <c r="B141" s="1" t="n">
+      <c r="B141" s="2" t="n">
         <v>319680</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="2" t="n">
         <v>319680</v>
       </c>
-      <c r="B142" s="1" t="n">
+      <c r="B142" s="2" t="n">
         <v>320680</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="2" t="n">
         <v>320680</v>
       </c>
-      <c r="B143" s="1" t="n">
+      <c r="B143" s="2" t="n">
         <v>321680</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="F143" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="2" t="n">
         <v>321680</v>
       </c>
-      <c r="B144" s="1" t="n">
+      <c r="B144" s="2" t="n">
         <v>323680</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="2" t="n">
         <v>323680</v>
       </c>
-      <c r="B145" s="1" t="n">
+      <c r="B145" s="2" t="n">
         <v>324680</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F145" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="2" t="n">
         <v>323680</v>
       </c>
-      <c r="B146" s="1" t="n">
+      <c r="B146" s="2" t="n">
         <v>324680</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F146" s="1" t="s">
+      <c r="D146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="2" t="n">
         <v>324680</v>
       </c>
-      <c r="B147" s="1" t="n">
+      <c r="B147" s="2" t="n">
         <v>325680</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F147" s="1" t="s">
+      <c r="D147" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="2" t="n">
         <v>324680</v>
       </c>
-      <c r="B148" s="1" t="n">
+      <c r="B148" s="2" t="n">
         <v>325680</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F148" s="1" t="s">
+      <c r="D148" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="2" t="n">
         <v>325680</v>
       </c>
-      <c r="B149" s="1" t="n">
+      <c r="B149" s="2" t="n">
         <v>326680</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E149" s="1" t="n">
+      <c r="D149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="2" t="n">
         <v>326680</v>
       </c>
-      <c r="B150" s="1" t="n">
+      <c r="B150" s="2" t="n">
         <v>329680</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="2" t="n">
         <v>329680</v>
       </c>
-      <c r="B151" s="1" t="n">
+      <c r="B151" s="2" t="n">
         <v>331680</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="2" t="n">
         <v>331680</v>
       </c>
-      <c r="B152" s="1" t="n">
+      <c r="B152" s="2" t="n">
         <v>333680</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F152" s="1" t="s">
+      <c r="D152" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="2" t="n">
         <v>331680</v>
       </c>
-      <c r="B153" s="1" t="n">
+      <c r="B153" s="2" t="n">
         <v>333680</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H153" s="1" t="s">
+      <c r="F153" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H153" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="2" t="n">
         <v>333680</v>
       </c>
-      <c r="B154" s="1" t="n">
+      <c r="B154" s="2" t="n">
         <v>334680</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="2" t="n">
         <v>334680</v>
       </c>
-      <c r="B155" s="1" t="n">
+      <c r="B155" s="2" t="n">
         <v>338680</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F155" s="1" t="s">
+      <c r="D155" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="2" t="n">
         <v>338680</v>
       </c>
-      <c r="B156" s="1" t="n">
+      <c r="B156" s="2" t="n">
         <v>339680</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="2" t="n">
         <v>339680</v>
       </c>
-      <c r="B157" s="1" t="n">
+      <c r="B157" s="2" t="n">
         <v>341840</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="2" t="n">
         <v>341840</v>
       </c>
-      <c r="B158" s="1" t="n">
+      <c r="B158" s="2" t="n">
         <v>343680</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="2" t="n">
         <v>343680</v>
       </c>
-      <c r="B159" s="1" t="n">
+      <c r="B159" s="2" t="n">
         <v>346680</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F159" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
+      <c r="A160" s="2" t="n">
         <v>343680</v>
       </c>
-      <c r="B160" s="1" t="n">
+      <c r="B160" s="2" t="n">
         <v>346680</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F160" s="1" t="s">
+      <c r="D160" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
+      <c r="A161" s="2" t="n">
         <v>343680</v>
       </c>
-      <c r="B161" s="1" t="n">
+      <c r="B161" s="2" t="n">
         <v>346680</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F161" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
+      <c r="A162" s="2" t="n">
         <v>346680</v>
       </c>
-      <c r="B162" s="1" t="n">
+      <c r="B162" s="2" t="n">
         <v>348680</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
+      <c r="A163" s="2" t="n">
         <v>348680</v>
       </c>
-      <c r="B163" s="1" t="n">
+      <c r="B163" s="2" t="n">
         <v>350680</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
+      <c r="A164" s="2" t="n">
         <v>350680</v>
       </c>
-      <c r="B164" s="1" t="n">
+      <c r="B164" s="2" t="n">
         <v>353680</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F164" s="1" t="s">
+      <c r="D164" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
+      <c r="A165" s="2" t="n">
         <v>353680</v>
       </c>
-      <c r="B165" s="1" t="n">
+      <c r="B165" s="2" t="n">
         <v>356680</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165" s="1" t="n">
+      <c r="D165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
+      <c r="A166" s="2" t="n">
         <v>356680</v>
       </c>
-      <c r="B166" s="1" t="n">
+      <c r="B166" s="2" t="n">
         <v>358680</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
+      <c r="A167" s="2" t="n">
         <v>358680</v>
       </c>
-      <c r="B167" s="1" t="n">
+      <c r="B167" s="2" t="n">
         <v>359680</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F167" s="1" t="s">
+      <c r="D167" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
+      <c r="A168" s="2" t="n">
         <v>359680</v>
       </c>
-      <c r="B168" s="1" t="n">
+      <c r="B168" s="2" t="n">
         <v>360680</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
+      <c r="A169" s="2" t="n">
         <v>360680</v>
       </c>
-      <c r="B169" s="1" t="n">
+      <c r="B169" s="2" t="n">
         <v>361680</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H169" s="1" t="s">
+      <c r="D169" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H169" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
+      <c r="A170" s="2" t="n">
         <v>361680</v>
       </c>
-      <c r="B170" s="1" t="n">
+      <c r="B170" s="2" t="n">
         <v>362680</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
+      <c r="A171" s="2" t="n">
         <v>362680</v>
       </c>
-      <c r="B171" s="1" t="n">
+      <c r="B171" s="2" t="n">
         <v>364680</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
+      <c r="A172" s="2" t="n">
         <v>364680</v>
       </c>
-      <c r="B172" s="1" t="n">
+      <c r="B172" s="2" t="n">
         <v>366680</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D172" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
+      <c r="A173" s="2" t="n">
         <v>366680</v>
       </c>
-      <c r="B173" s="1" t="n">
+      <c r="B173" s="2" t="n">
         <v>368680</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F173" s="1" t="s">
+      <c r="D173" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="n">
+      <c r="A174" s="2" t="n">
         <v>368680</v>
       </c>
-      <c r="B174" s="1" t="n">
+      <c r="B174" s="2" t="n">
         <v>369680</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
+      <c r="A175" s="2" t="n">
         <v>369680</v>
       </c>
-      <c r="B175" s="1" t="n">
+      <c r="B175" s="2" t="n">
         <v>371680</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="F175" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
+      <c r="A176" s="2" t="n">
         <v>371680</v>
       </c>
-      <c r="B176" s="1" t="n">
+      <c r="B176" s="2" t="n">
         <v>373680</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
+      <c r="A177" s="2" t="n">
         <v>373680</v>
       </c>
-      <c r="B177" s="1" t="n">
+      <c r="B177" s="2" t="n">
         <v>374680</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="F177" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="n">
+      <c r="A178" s="2" t="n">
         <v>374680</v>
       </c>
-      <c r="B178" s="1" t="n">
+      <c r="B178" s="2" t="n">
         <v>375680</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="F178" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
+      <c r="A179" s="2" t="n">
         <v>375680</v>
       </c>
-      <c r="B179" s="1" t="n">
+      <c r="B179" s="2" t="n">
         <v>376680</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F179" s="1" t="s">
+      <c r="D179" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F179" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="n">
+      <c r="A180" s="2" t="n">
         <v>376680</v>
       </c>
-      <c r="B180" s="1" t="n">
+      <c r="B180" s="2" t="n">
         <v>377680</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
+      <c r="A181" s="2" t="n">
         <v>377680</v>
       </c>
-      <c r="B181" s="1" t="n">
+      <c r="B181" s="2" t="n">
         <v>378680</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F181" s="1" t="s">
+      <c r="D181" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
+      <c r="A182" s="2" t="n">
         <v>378680</v>
       </c>
-      <c r="B182" s="1" t="n">
+      <c r="B182" s="2" t="n">
         <v>379680</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E182" s="1" t="n">
+      <c r="D182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
+      <c r="A183" s="2" t="n">
         <v>379680</v>
       </c>
-      <c r="B183" s="1" t="n">
+      <c r="B183" s="2" t="n">
         <v>380680</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F183" s="1" t="s">
+      <c r="F183" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
+      <c r="A184" s="2" t="n">
         <v>380680</v>
       </c>
-      <c r="B184" s="1" t="n">
+      <c r="B184" s="2" t="n">
         <v>381680</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
+      <c r="A185" s="2" t="n">
         <v>381680</v>
       </c>
-      <c r="B185" s="1" t="n">
+      <c r="B185" s="2" t="n">
         <v>382680</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
+      <c r="A186" s="2" t="n">
         <v>382680</v>
       </c>
-      <c r="B186" s="1" t="n">
+      <c r="B186" s="2" t="n">
         <v>384680</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D186" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="n">
+      <c r="A187" s="2" t="n">
         <v>384680</v>
       </c>
-      <c r="B187" s="1" t="n">
+      <c r="B187" s="2" t="n">
         <v>386680</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F187" s="1" t="s">
+      <c r="F187" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="n">
+      <c r="A188" s="2" t="n">
         <v>386680</v>
       </c>
-      <c r="B188" s="1" t="n">
+      <c r="B188" s="2" t="n">
         <v>387680</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D188" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="n">
+      <c r="A189" s="2" t="n">
         <v>387680</v>
       </c>
-      <c r="B189" s="1" t="n">
+      <c r="B189" s="2" t="n">
         <v>388680</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F189" s="1" t="s">
+      <c r="D189" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H189" s="1"/>
+      <c r="H189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="n">
+      <c r="A190" s="2" t="n">
         <v>388680</v>
       </c>
-      <c r="B190" s="1" t="n">
+      <c r="B190" s="2" t="n">
         <v>390920</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D190" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="n">
+      <c r="A191" s="2" t="n">
         <v>390920</v>
       </c>
-      <c r="B191" s="1" t="n">
+      <c r="B191" s="2" t="n">
         <v>394920</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E191" s="1" t="n">
+      <c r="D191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" s="2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="n">
+      <c r="A192" s="2" t="n">
         <v>390920</v>
       </c>
-      <c r="B192" s="1" t="n">
+      <c r="B192" s="2" t="n">
         <v>394920</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1" t="s">
+      <c r="D192" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="n">
+      <c r="A193" s="2" t="n">
         <v>394920</v>
       </c>
-      <c r="B193" s="1" t="n">
+      <c r="B193" s="2" t="n">
         <v>396440</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="n">
+      <c r="A194" s="2" t="n">
         <v>396440</v>
       </c>
-      <c r="B194" s="1" t="n">
+      <c r="B194" s="2" t="n">
         <v>398440</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D194" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="n">
+      <c r="A195" s="2" t="n">
         <v>398440</v>
       </c>
-      <c r="B195" s="1" t="n">
+      <c r="B195" s="2" t="n">
         <v>399440</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H195" s="1" t="s">
+      <c r="D195" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H195" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="n">
+      <c r="A196" s="2" t="n">
         <v>399440</v>
       </c>
-      <c r="B196" s="1" t="n">
+      <c r="B196" s="2" t="n">
         <v>400440</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D196" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="n">
+      <c r="A197" s="2" t="n">
         <v>400440</v>
       </c>
-      <c r="B197" s="1" t="n">
+      <c r="B197" s="2" t="n">
         <v>401440</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F197" s="1" t="s">
+      <c r="D197" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F197" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="n">
+      <c r="A198" s="2" t="n">
         <v>401440</v>
       </c>
-      <c r="B198" s="1" t="n">
+      <c r="B198" s="2" t="n">
         <v>402440</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D198" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F198" s="1" t="s">
+      <c r="F198" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="n">
+      <c r="A199" s="2" t="n">
         <v>402440</v>
       </c>
-      <c r="B199" s="1" t="n">
+      <c r="B199" s="2" t="n">
         <v>403440</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F199" s="1" t="s">
+      <c r="D199" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F199" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="n">
+      <c r="A200" s="2" t="n">
         <v>403440</v>
       </c>
-      <c r="B200" s="1" t="n">
+      <c r="B200" s="2" t="n">
         <v>404440</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F200" s="1" t="s">
+      <c r="D200" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F200" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="n">
+      <c r="A201" s="2" t="n">
         <v>404440</v>
       </c>
-      <c r="B201" s="1" t="n">
+      <c r="B201" s="2" t="n">
         <v>405440</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F201" s="1" t="s">
+      <c r="D201" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F201" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="n">
+      <c r="A202" s="2" t="n">
         <v>405440</v>
       </c>
-      <c r="B202" s="1" t="n">
+      <c r="B202" s="2" t="n">
         <v>407440</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D202" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F202" s="1" t="s">
+      <c r="F202" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="n">
+      <c r="A203" s="2" t="n">
         <v>407440</v>
       </c>
-      <c r="B203" s="1" t="n">
+      <c r="B203" s="2" t="n">
         <v>409440</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C203" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F203" s="1" t="s">
+      <c r="D203" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F203" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="n">
+      <c r="A204" s="2" t="n">
         <v>409440</v>
       </c>
-      <c r="B204" s="1" t="n">
+      <c r="B204" s="2" t="n">
         <v>410440</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C204" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E204" s="1"/>
+      <c r="D204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="n">
+      <c r="A205" s="2" t="n">
         <v>410440</v>
       </c>
-      <c r="B205" s="1" t="n">
+      <c r="B205" s="2" t="n">
         <v>412440</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C205" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F205" s="1" t="s">
+      <c r="D205" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F205" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="n">
+      <c r="A206" s="2" t="n">
         <v>412440</v>
       </c>
-      <c r="B206" s="1" t="n">
+      <c r="B206" s="2" t="n">
         <v>415020</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E206" s="1" t="n">
+      <c r="D206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206" s="2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="n">
+      <c r="A207" s="2" t="n">
         <v>415020</v>
       </c>
-      <c r="B207" s="1" t="n">
+      <c r="B207" s="2" t="n">
         <v>417260</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="n">
+      <c r="A208" s="2" t="n">
         <v>417260</v>
       </c>
-      <c r="B208" s="1" t="n">
+      <c r="B208" s="2" t="n">
         <v>418020</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D208" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="n">
+      <c r="A209" s="2" t="n">
         <v>418020</v>
       </c>
-      <c r="B209" s="1" t="n">
+      <c r="B209" s="2" t="n">
         <v>420480</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C209" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F209" s="1" t="s">
+      <c r="D209" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F209" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="n">
+      <c r="A210" s="2" t="n">
         <v>420480</v>
       </c>
-      <c r="B210" s="1" t="n">
+      <c r="B210" s="2" t="n">
         <v>423660</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C210" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D210" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="n">
+      <c r="A211" s="2" t="n">
         <v>423660</v>
       </c>
-      <c r="B211" s="1" t="n">
+      <c r="B211" s="2" t="n">
         <v>424460</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="n">
+      <c r="A212" s="2" t="n">
         <v>424460</v>
       </c>
-      <c r="B212" s="1" t="n">
+      <c r="B212" s="2" t="n">
         <v>428380</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D212" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="n">
+      <c r="A213" s="2" t="n">
         <v>428380</v>
       </c>
-      <c r="B213" s="1" t="n">
+      <c r="B213" s="2" t="n">
         <v>430660</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C213" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="D213" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H213" s="1" t="s">
+      <c r="F213" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H213" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="n">
+      <c r="A214" s="2" t="n">
         <v>430660</v>
       </c>
-      <c r="B214" s="1" t="n">
+      <c r="B214" s="2" t="n">
         <v>431260</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C214" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="D214" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="n">
+      <c r="A215" s="2" t="n">
         <v>433260</v>
       </c>
-      <c r="B215" s="1" t="n">
+      <c r="B215" s="2" t="n">
         <v>434580</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F215" s="1" t="s">
+      <c r="D215" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F215" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="n">
+      <c r="A216" s="2" t="n">
         <v>434580</v>
       </c>
-      <c r="B216" s="1" t="n">
+      <c r="B216" s="2" t="n">
         <v>435460</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C216" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F216" s="1" t="s">
+      <c r="D216" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F216" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="n">
+      <c r="A217" s="2" t="n">
         <v>435460</v>
       </c>
-      <c r="B217" s="1" t="n">
+      <c r="B217" s="2" t="n">
         <v>437580</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C217" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F217" s="1" t="s">
+      <c r="D217" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F217" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="n">
+      <c r="A218" s="2" t="n">
         <v>437580</v>
       </c>
-      <c r="B218" s="1" t="n">
+      <c r="B218" s="2" t="n">
         <v>439180</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C218" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E218" s="1" t="n">
+      <c r="D218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E218" s="2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="n">
+      <c r="A219" s="2" t="n">
         <v>439180</v>
       </c>
-      <c r="B219" s="1" t="n">
+      <c r="B219" s="2" t="n">
         <v>441060</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C219" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D219" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="n">
+      <c r="A220" s="2" t="n">
         <v>441060</v>
       </c>
-      <c r="B220" s="1" t="n">
+      <c r="B220" s="2" t="n">
         <v>441260</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D220" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F220" s="1" t="s">
+      <c r="D220" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F220" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="n">
+      <c r="A221" s="2" t="n">
         <v>441260</v>
       </c>
-      <c r="B221" s="1" t="n">
+      <c r="B221" s="2" t="n">
         <v>443180</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D221" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="n">
+      <c r="A222" s="2" t="n">
         <v>443180</v>
       </c>
-      <c r="B222" s="1" t="n">
+      <c r="B222" s="2" t="n">
         <v>444180</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D222" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F222" s="1" t="s">
+      <c r="F222" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="n">
+      <c r="A223" s="2" t="n">
         <v>444180</v>
       </c>
-      <c r="B223" s="1" t="n">
+      <c r="B223" s="2" t="n">
         <v>445180</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D223" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="n">
+      <c r="A224" s="2" t="n">
         <v>445180</v>
       </c>
-      <c r="B224" s="1" t="n">
+      <c r="B224" s="2" t="n">
         <v>446180</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D224" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H224" s="1" t="s">
+      <c r="D224" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H224" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="n">
+      <c r="A225" s="2" t="n">
         <v>446180</v>
       </c>
-      <c r="B225" s="1" t="n">
+      <c r="B225" s="2" t="n">
         <v>447180</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D225" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1" t="n">
+      <c r="A226" s="2" t="n">
         <v>448180</v>
       </c>
-      <c r="B226" s="1" t="n">
+      <c r="B226" s="2" t="n">
         <v>449180</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F226" s="1" t="s">
+      <c r="D226" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F226" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="n">
+      <c r="A227" s="2" t="n">
         <v>449180</v>
       </c>
-      <c r="B227" s="1" t="n">
+      <c r="B227" s="2" t="n">
         <v>450180</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C227" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D227" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F227" s="1" t="s">
+      <c r="F227" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="n">
+      <c r="A228" s="2" t="n">
         <v>449180</v>
       </c>
-      <c r="B228" s="1" t="n">
+      <c r="B228" s="2" t="n">
         <v>450180</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C228" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F228" s="1" t="s">
+      <c r="D228" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F228" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="n">
+      <c r="A229" s="2" t="n">
         <v>450180</v>
       </c>
-      <c r="B229" s="1" t="n">
+      <c r="B229" s="2" t="n">
         <v>451180</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D229" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F229" s="1" t="s">
+      <c r="F229" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="n">
+      <c r="A230" s="2" t="n">
         <v>451180</v>
       </c>
-      <c r="B230" s="1" t="n">
+      <c r="B230" s="2" t="n">
         <v>453180</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D230" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="n">
+      <c r="A231" s="2" t="n">
         <v>453180</v>
       </c>
-      <c r="B231" s="1" t="n">
+      <c r="B231" s="2" t="n">
         <v>454180</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C231" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D231" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F231" s="1" t="s">
+      <c r="D231" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F231" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="n">
+      <c r="A232" s="2" t="n">
         <v>454180</v>
       </c>
-      <c r="B232" s="1" t="n">
+      <c r="B232" s="2" t="n">
         <v>457180</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C232" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D232" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="n">
+      <c r="A233" s="2" t="n">
         <v>457180</v>
       </c>
-      <c r="B233" s="1" t="n">
+      <c r="B233" s="2" t="n">
         <v>459180</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C233" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F233" s="1" t="s">
+      <c r="D233" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F233" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="n">
+      <c r="A234" s="2" t="n">
         <v>459180</v>
       </c>
-      <c r="B234" s="1" t="n">
+      <c r="B234" s="2" t="n">
         <v>460180</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D234" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="n">
+      <c r="A235" s="2" t="n">
         <v>460180</v>
       </c>
-      <c r="B235" s="1" t="n">
+      <c r="B235" s="2" t="n">
         <v>461180</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E235" s="1" t="n">
+      <c r="D235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E235" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="n">
+      <c r="A236" s="2" t="n">
         <v>461180</v>
       </c>
-      <c r="B236" s="1" t="n">
+      <c r="B236" s="2" t="n">
         <v>463180</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C236" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="D236" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="n">
+      <c r="A237" s="2" t="n">
         <v>463180</v>
       </c>
-      <c r="B237" s="1" t="n">
+      <c r="B237" s="2" t="n">
         <v>466180</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D237" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F237" s="1" t="s">
+      <c r="F237" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="n">
+      <c r="A238" s="2" t="n">
         <v>466180</v>
       </c>
-      <c r="B238" s="1" t="n">
+      <c r="B238" s="2" t="n">
         <v>468180</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C238" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D238" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F238" s="1" t="s">
+      <c r="F238" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="n">
+      <c r="A239" s="2" t="n">
         <v>470180</v>
       </c>
-      <c r="B239" s="1" t="n">
+      <c r="B239" s="2" t="n">
         <v>472180</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F239" s="1" t="s">
+      <c r="D239" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F239" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="n">
+      <c r="A240" s="2" t="n">
         <v>472180</v>
       </c>
-      <c r="B240" s="1" t="n">
+      <c r="B240" s="2" t="n">
         <v>475420</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="D240" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="n">
+      <c r="A241" s="2" t="n">
         <v>475420</v>
       </c>
-      <c r="B241" s="1" t="n">
+      <c r="B241" s="2" t="n">
         <v>477500</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C241" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="D241" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F241" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H241" s="1" t="s">
+      <c r="F241" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H241" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="n">
+      <c r="A242" s="2" t="n">
         <v>477500</v>
       </c>
-      <c r="B242" s="1" t="n">
+      <c r="B242" s="2" t="n">
         <v>480180</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="D242" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="n">
+      <c r="A243" s="2" t="n">
         <v>480180</v>
       </c>
-      <c r="B243" s="1" t="n">
+      <c r="B243" s="2" t="n">
         <v>482940</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C243" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E243" s="1" t="n">
+      <c r="D243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E243" s="2" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="n">
+      <c r="A244" s="2" t="n">
         <v>482940</v>
       </c>
-      <c r="B244" s="1" t="n">
+      <c r="B244" s="2" t="n">
         <v>483940</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C244" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F244" s="1" t="s">
+      <c r="D244" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F244" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1" t="n">
+      <c r="A245" s="2" t="n">
         <v>483940</v>
       </c>
-      <c r="B245" s="1" t="n">
+      <c r="B245" s="2" t="n">
         <v>488940</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C245" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="D245" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="n">
+      <c r="A246" s="2" t="n">
         <v>488940</v>
       </c>
-      <c r="B246" s="1" t="n">
+      <c r="B246" s="2" t="n">
         <v>489940</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="C246" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H246" s="1" t="s">
+      <c r="D246" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H246" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="n">
+      <c r="A247" s="2" t="n">
         <v>489940</v>
       </c>
-      <c r="B247" s="1" t="n">
+      <c r="B247" s="2" t="n">
         <v>490940</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="C247" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F247" s="1" t="s">
+      <c r="D247" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F247" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="n">
+      <c r="A248" s="2" t="n">
         <v>489940</v>
       </c>
-      <c r="B248" s="1" t="n">
+      <c r="B248" s="2" t="n">
         <v>490940</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="C248" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="D248" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1" t="n">
+      <c r="A249" s="2" t="n">
         <v>490940</v>
       </c>
-      <c r="B249" s="1" t="n">
+      <c r="B249" s="2" t="n">
         <v>491940</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C249" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D249" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>90</v>
+      <c r="D249" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="n">
+      <c r="A250" s="2" t="n">
         <v>491940</v>
       </c>
-      <c r="B250" s="1" t="n">
+      <c r="B250" s="2" t="n">
         <v>492940</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>90</v>
+      <c r="C250" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1" t="n">
+      <c r="A251" s="2" t="n">
         <v>492940</v>
       </c>
-      <c r="B251" s="1" t="n">
+      <c r="B251" s="2" t="n">
         <v>494940</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F251" s="1" t="s">
+      <c r="C251" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F251" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="n">
+      <c r="A252" s="2" t="n">
         <v>492940</v>
       </c>
-      <c r="B252" s="1" t="n">
+      <c r="B252" s="2" t="n">
         <v>494940</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C252" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="2" t="n">
+        <v>494940</v>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>495940</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="D253" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="2" t="n">
+        <v>494940</v>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>495940</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="2" t="n">
+        <v>495940</v>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>496940</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="2" t="n">
+        <v>500100</v>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>500580</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="2" t="n">
+        <v>501100</v>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>501780</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="2" t="n">
+        <v>502120</v>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>503340</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="2" t="n">
+        <v>504340</v>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>505640</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="2" t="n">
+        <v>506100</v>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>506900</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="2" t="n">
+        <v>507160</v>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>507300</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="2" t="n">
+        <v>507880</v>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>509240</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="2" t="n">
+        <v>509700</v>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>510720</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D263" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F252" s="1" t="s">
+      <c r="F263" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="2" t="n">
+        <v>511300</v>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>515740</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="2" t="n">
+        <v>516320</v>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>517040</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="2" t="n">
+        <v>517540</v>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>519080</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="2" t="n">
+        <v>519260</v>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>522180</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F267" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="1" t="n">
-        <v>494940</v>
-      </c>
-      <c r="B253" s="1" t="n">
-        <v>495940</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F253" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="1" t="n">
-        <v>494940</v>
-      </c>
-      <c r="B254" s="1" t="n">
-        <v>495940</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="n">
-        <v>495940</v>
-      </c>
-      <c r="B255" s="1" t="n">
-        <v>496940</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1" t="n">
-        <v>500100</v>
-      </c>
-      <c r="B256" s="1" t="n">
-        <v>500580</v>
-      </c>
-      <c r="C256" s="1" t="s">
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="2" t="n">
+        <v>522180</v>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>524080</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="2" t="n">
+        <v>524080</v>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>525180</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="2" t="n">
+        <v>525180</v>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>526180</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="2" t="n">
+        <v>526180</v>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>527180</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="2" t="n">
+        <v>527180</v>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>529180</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="2" t="n">
+        <v>529180</v>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>534180</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="2" t="n">
+        <v>534180</v>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>535180</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="2" t="n">
+        <v>534180</v>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>535180</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="2" t="n">
+        <v>535180</v>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>536180</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="2" t="n">
+        <v>536180</v>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>538180</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="2" t="n">
+        <v>536180</v>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>538180</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="2" t="n">
+        <v>538180</v>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>539180</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="2" t="n">
+        <v>539180</v>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>549180</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="2" t="n">
+        <v>539180</v>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>549180</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="2" t="n">
+        <v>549180</v>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>551180</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="2" t="n">
+        <v>551180</v>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>556180</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="2" t="n">
+        <v>556180</v>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>557180</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="2" t="n">
+        <v>557180</v>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>560180</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="2" t="n">
+        <v>560180</v>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>561180</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H286" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="2" t="n">
+        <v>561180</v>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>563180</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="2" t="n">
+        <v>563180</v>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>569180</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="2" t="n">
+        <v>563180</v>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>569180</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="2" t="n">
+        <v>569180</v>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>572180</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="2" t="n">
+        <v>572180</v>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>575180</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="2" t="n">
+        <v>575180</v>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>576180</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H292" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="2" t="n">
+        <v>576180</v>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>577180</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="2" t="n">
+        <v>577180</v>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>578180</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="2" t="n">
+        <v>578180</v>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>580180</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="2" t="n">
+        <v>580180</v>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>585180</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H296" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="2" t="n">
+        <v>585180</v>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>587180</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="2" t="n">
+        <v>587180</v>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>589180</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="2" t="n">
+        <v>590180</v>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>597180</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="2" t="n">
+        <v>597180</v>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>598180</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="2" t="n">
+        <v>598180</v>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>600180</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="2" t="n">
+        <v>600180</v>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>604180</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="2" t="n">
+        <v>604180</v>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>606180</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="2" t="n">
+        <v>606180</v>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>608180</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="2" t="n">
+        <v>608180</v>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>609180</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="2" t="n">
+        <v>609180</v>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>611180</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="2" t="n">
+        <v>611180</v>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>612180</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="2" t="n">
+        <v>612180</v>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>615180</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="2" t="n">
+        <v>615180</v>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>617180</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H309" s="2"/>
+    </row>
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="2" t="n">
+        <v>617180</v>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>624180</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="2" t="n">
+        <v>624180</v>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>625180</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="2" t="n">
+        <v>625180</v>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>628180</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="2" t="n">
+        <v>628180</v>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>629180</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="2" t="n">
+        <v>629180</v>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>630180</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="2" t="n">
+        <v>630180</v>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>633180</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="2" t="n">
+        <v>633180</v>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>634180</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="2" t="n">
+        <v>634180</v>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>636180</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="2" t="n">
+        <v>636180</v>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>637180</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="2" t="n">
+        <v>637180</v>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>639180</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="2" t="n">
+        <v>639180</v>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>640180</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="2" t="n">
+        <v>640180</v>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>641180</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="2" t="n">
+        <v>641180</v>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>642180</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="2" t="n">
+        <v>642180</v>
+      </c>
+      <c r="B323" s="2" t="n">
+        <v>644180</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="2" t="n">
+        <v>644180</v>
+      </c>
+      <c r="B324" s="2" t="n">
+        <v>645180</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="2" t="n">
+        <v>645180</v>
+      </c>
+      <c r="B325" s="2" t="n">
+        <v>646180</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="2" t="n">
+        <v>646180</v>
+      </c>
+      <c r="B326" s="2" t="n">
+        <v>650340</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="2" t="n">
+        <v>650340</v>
+      </c>
+      <c r="B327" s="2" t="n">
+        <v>660340</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="2" t="n">
+        <v>650340</v>
+      </c>
+      <c r="B328" s="2" t="n">
+        <v>660340</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H328" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="2" t="n">
+        <v>650340</v>
+      </c>
+      <c r="B329" s="2" t="n">
+        <v>660340</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="2" t="n">
+        <v>650340</v>
+      </c>
+      <c r="B330" s="2" t="n">
+        <v>660340</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E330" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="2" t="n">
+        <v>660340</v>
+      </c>
+      <c r="B331" s="2" t="n">
+        <v>670340</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="2" t="n">
+        <v>660340</v>
+      </c>
+      <c r="B332" s="2" t="n">
+        <v>670340</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="2" t="n">
+        <v>660340</v>
+      </c>
+      <c r="B333" s="2" t="n">
+        <v>670340</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="2" t="n">
+        <v>660340</v>
+      </c>
+      <c r="B334" s="2" t="n">
+        <v>670340</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H334" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="2" t="n">
+        <v>670340</v>
+      </c>
+      <c r="B335" s="2" t="n">
+        <v>674580</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="2" t="n">
+        <v>670340</v>
+      </c>
+      <c r="B336" s="2" t="n">
+        <v>674580</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="2" t="n">
+        <v>674580</v>
+      </c>
+      <c r="B337" s="2" t="n">
+        <v>675580</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E337" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="2" t="n">
+        <v>675580</v>
+      </c>
+      <c r="B338" s="2" t="n">
+        <v>678580</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="2" t="n">
+        <v>678580</v>
+      </c>
+      <c r="B339" s="2" t="n">
+        <v>680580</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="2" t="n">
+        <v>680580</v>
+      </c>
+      <c r="B340" s="2" t="n">
+        <v>681580</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="2" t="n">
+        <v>681580</v>
+      </c>
+      <c r="B341" s="2" t="n">
+        <v>683580</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="2" t="n">
+        <v>683580</v>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>685580</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H342" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="2" t="n">
+        <v>685580</v>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>686580</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="2" t="n">
+        <v>686580</v>
+      </c>
+      <c r="B344" s="2" t="n">
+        <v>687580</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="2" t="n">
+        <v>687580</v>
+      </c>
+      <c r="B345" s="2" t="n">
+        <v>688580</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="2" t="n">
+        <v>688580</v>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>690580</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="2" t="n">
+        <v>690580</v>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>692580</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E347" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="2" t="n">
+        <v>692580</v>
+      </c>
+      <c r="B348" s="2" t="n">
+        <v>693580</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="2" t="n">
+        <v>693580</v>
+      </c>
+      <c r="B349" s="2" t="n">
+        <v>694580</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="2" t="n">
+        <v>694580</v>
+      </c>
+      <c r="B350" s="2" t="n">
+        <v>695580</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="2" t="n">
+        <v>695580</v>
+      </c>
+      <c r="B351" s="2" t="n">
+        <v>697580</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="2" t="n">
+        <v>697580</v>
+      </c>
+      <c r="B352" s="2" t="n">
+        <v>698580</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="2" t="n">
+        <v>698580</v>
+      </c>
+      <c r="B353" s="2" t="n">
+        <v>703580</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="2" t="n">
+        <v>698580</v>
+      </c>
+      <c r="B354" s="2" t="n">
+        <v>703580</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="3" t="n">
+        <v>698580</v>
+      </c>
+      <c r="B355" s="3" t="n">
+        <v>703580</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E355" s="2"/>
+      <c r="F355" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G355" s="2"/>
+      <c r="H355" s="2"/>
+      <c r="I355" s="2"/>
+      <c r="J355" s="2"/>
+      <c r="K355" s="2"/>
+      <c r="L355" s="2"/>
+      <c r="M355" s="2"/>
+      <c r="N355" s="2"/>
+      <c r="O355" s="2"/>
+      <c r="P355" s="2"/>
+      <c r="Q355" s="2"/>
+      <c r="R355" s="2"/>
+      <c r="S355" s="2"/>
+      <c r="T355" s="2"/>
+      <c r="U355" s="2"/>
+      <c r="V355" s="2"/>
+      <c r="W355" s="2"/>
+      <c r="X355" s="2"/>
+      <c r="Y355" s="2"/>
+      <c r="Z355" s="2"/>
+    </row>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="2" t="n">
+        <v>703580</v>
+      </c>
+      <c r="B356" s="2" t="n">
+        <v>704580</v>
+      </c>
+      <c r="C356" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="D356" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="1" t="n">
-        <v>501100</v>
-      </c>
-      <c r="B257" s="1" t="n">
-        <v>501780</v>
-      </c>
-      <c r="C257" s="1" t="s">
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="2" t="n">
+        <v>704580</v>
+      </c>
+      <c r="B357" s="2" t="n">
+        <v>705580</v>
+      </c>
+      <c r="C357" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E257" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="1" t="n">
-        <v>502120</v>
-      </c>
-      <c r="B258" s="1" t="n">
-        <v>503340</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F258" s="1" t="s">
+      <c r="D357" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E357" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="2" t="n">
+        <v>705580</v>
+      </c>
+      <c r="B358" s="2" t="n">
+        <v>710580</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F358" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="n">
-        <v>504340</v>
-      </c>
-      <c r="B259" s="1" t="n">
-        <v>505640</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1" t="n">
-        <v>506100</v>
-      </c>
-      <c r="B260" s="1" t="n">
-        <v>506900</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F260" s="1" t="s">
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="2" t="n">
+        <v>710580</v>
+      </c>
+      <c r="B359" s="2" t="n">
+        <v>711580</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="2" t="n">
+        <v>711580</v>
+      </c>
+      <c r="B360" s="2" t="n">
+        <v>713580</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F360" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="1" t="n">
-        <v>507160</v>
-      </c>
-      <c r="B261" s="1" t="n">
-        <v>507300</v>
-      </c>
-      <c r="C261" s="1" t="s">
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="2" t="n">
+        <v>713580</v>
+      </c>
+      <c r="B361" s="2" t="n">
+        <v>717580</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H361" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="2" t="n">
+        <v>717580</v>
+      </c>
+      <c r="B362" s="2" t="n">
+        <v>720580</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="2" t="n">
+        <v>717580</v>
+      </c>
+      <c r="B363" s="2" t="n">
+        <v>720580</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="2" t="n">
+        <v>720580</v>
+      </c>
+      <c r="B364" s="2" t="n">
+        <v>724580</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E364" s="2"/>
+    </row>
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="2" t="n">
+        <v>724580</v>
+      </c>
+      <c r="B365" s="2" t="n">
+        <v>727580</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="2" t="n">
+        <v>727580</v>
+      </c>
+      <c r="B366" s="2" t="n">
+        <v>729580</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="2" t="n">
+        <v>729580</v>
+      </c>
+      <c r="B367" s="2" t="n">
+        <v>733580</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="2" t="n">
+        <v>733580</v>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>734580</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="2" t="n">
+        <v>734580</v>
+      </c>
+      <c r="B369" s="2" t="n">
+        <v>738580</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="2" t="n">
+        <v>738580</v>
+      </c>
+      <c r="B370" s="2" t="n">
+        <v>740580</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="2" t="n">
+        <v>740580</v>
+      </c>
+      <c r="B371" s="2" t="n">
+        <v>744580</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="2" t="n">
+        <v>744580</v>
+      </c>
+      <c r="B372" s="2" t="n">
+        <v>746580</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="2" t="n">
+        <v>746580</v>
+      </c>
+      <c r="B373" s="2" t="n">
+        <v>750580</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="2" t="n">
+        <v>750580</v>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>753580</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="2" t="n">
+        <v>753580</v>
+      </c>
+      <c r="B375" s="2" t="n">
+        <v>754580</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="2" t="n">
+        <v>754580</v>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>756580</v>
+      </c>
+      <c r="C376" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D261" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="1" t="n">
-        <v>507880</v>
-      </c>
-      <c r="B262" s="1" t="n">
-        <v>509240</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="1" t="n">
-        <v>509700</v>
-      </c>
-      <c r="B263" s="1" t="n">
-        <v>510720</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="1" t="n">
-        <v>511300</v>
-      </c>
-      <c r="B264" s="1" t="n">
-        <v>515740</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1" t="n">
-        <v>516320</v>
-      </c>
-      <c r="B265" s="1" t="n">
-        <v>517040</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="1" t="n">
-        <v>517540</v>
-      </c>
-      <c r="B266" s="1" t="n">
-        <v>519080</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1" t="n">
-        <v>519260</v>
-      </c>
-      <c r="B267" s="1" t="n">
-        <v>522180</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F267" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="n">
-        <v>522180</v>
-      </c>
-      <c r="B268" s="1" t="n">
-        <v>524080</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="1" t="n">
-        <v>524080</v>
-      </c>
-      <c r="B269" s="1" t="n">
-        <v>525180</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="1" t="n">
-        <v>525180</v>
-      </c>
-      <c r="B270" s="1" t="n">
-        <v>526180</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1" t="n">
-        <v>526180</v>
-      </c>
-      <c r="B271" s="1" t="n">
-        <v>527180</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F271" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="1" t="n">
-        <v>527180</v>
-      </c>
-      <c r="B272" s="1" t="n">
-        <v>529180</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F272" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="1" t="n">
-        <v>529180</v>
-      </c>
-      <c r="B273" s="1" t="n">
-        <v>534180</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1" t="n">
-        <v>534180</v>
-      </c>
-      <c r="B274" s="1" t="n">
-        <v>535180</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F274" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1" t="n">
-        <v>534180</v>
-      </c>
-      <c r="B275" s="1" t="n">
-        <v>535180</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F275" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="n">
-        <v>535180</v>
-      </c>
-      <c r="B276" s="1" t="n">
-        <v>536180</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="n">
-        <v>536180</v>
-      </c>
-      <c r="B277" s="1" t="n">
-        <v>538180</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="1" t="n">
-        <v>536180</v>
-      </c>
-      <c r="B278" s="1" t="n">
-        <v>538180</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F278" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="1" t="n">
-        <v>538180</v>
-      </c>
-      <c r="B279" s="1" t="n">
-        <v>539180</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="1" t="n">
-        <v>539180</v>
-      </c>
-      <c r="B280" s="1" t="n">
-        <v>549180</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="n">
-        <v>539180</v>
-      </c>
-      <c r="B281" s="1" t="n">
-        <v>549180</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="1" t="n">
-        <v>549180</v>
-      </c>
-      <c r="B282" s="1" t="n">
-        <v>551180</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="1" t="n">
-        <v>551180</v>
-      </c>
-      <c r="B283" s="1" t="n">
-        <v>556180</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="n">
-        <v>556180</v>
-      </c>
-      <c r="B284" s="1" t="n">
-        <v>557180</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="1" t="n">
-        <v>557180</v>
-      </c>
-      <c r="B285" s="1" t="n">
-        <v>560180</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="1" t="n">
-        <v>560180</v>
-      </c>
-      <c r="B286" s="1" t="n">
-        <v>561180</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H286" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="1" t="n">
-        <v>561180</v>
-      </c>
-      <c r="B287" s="1" t="n">
-        <v>563180</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="1" t="n">
-        <v>563180</v>
-      </c>
-      <c r="B288" s="1" t="n">
-        <v>569180</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E288" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="1" t="n">
-        <v>563180</v>
-      </c>
-      <c r="B289" s="1" t="n">
-        <v>569180</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="1" t="n">
-        <v>569180</v>
-      </c>
-      <c r="B290" s="1" t="n">
-        <v>572180</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F290" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="1" t="n">
-        <v>572180</v>
-      </c>
-      <c r="B291" s="1" t="n">
-        <v>575180</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="1" t="n">
-        <v>575180</v>
-      </c>
-      <c r="B292" s="1" t="n">
-        <v>576180</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H292" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="1" t="n">
-        <v>576180</v>
-      </c>
-      <c r="B293" s="1" t="n">
-        <v>577180</v>
-      </c>
-      <c r="C293" s="1" t="s">
+      <c r="D376" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="2" t="n">
+        <v>756580</v>
+      </c>
+      <c r="B377" s="2" t="n">
+        <v>757580</v>
+      </c>
+      <c r="C377" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D293" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="1" t="n">
-        <v>577180</v>
-      </c>
-      <c r="B294" s="1" t="n">
-        <v>578180</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E294" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="1" t="n">
-        <v>578180</v>
-      </c>
-      <c r="B295" s="1" t="n">
-        <v>580180</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="1" t="n">
-        <v>580180</v>
-      </c>
-      <c r="B296" s="1" t="n">
-        <v>585180</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H296" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="1" t="n">
-        <v>585180</v>
-      </c>
-      <c r="B297" s="1" t="n">
-        <v>587180</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F297" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="1" t="n">
-        <v>587180</v>
-      </c>
-      <c r="B298" s="1" t="n">
-        <v>589180</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E298" s="1" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="1" t="n">
-        <v>590180</v>
-      </c>
-      <c r="B299" s="1" t="n">
-        <v>597180</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F299" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="1" t="n">
-        <v>597180</v>
-      </c>
-      <c r="B300" s="1" t="n">
-        <v>598180</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F300" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="1" t="n">
-        <v>598180</v>
-      </c>
-      <c r="B301" s="1" t="n">
-        <v>600180</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F301" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="1" t="n">
-        <v>600180</v>
-      </c>
-      <c r="B302" s="1" t="n">
-        <v>604180</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="1" t="n">
-        <v>604180</v>
-      </c>
-      <c r="B303" s="1" t="n">
-        <v>606180</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F303" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="1" t="n">
-        <v>606180</v>
-      </c>
-      <c r="B304" s="1" t="n">
-        <v>608180</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="1" t="n">
-        <v>608180</v>
-      </c>
-      <c r="B305" s="1" t="n">
-        <v>609180</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F305" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="1" t="n">
-        <v>609180</v>
-      </c>
-      <c r="B306" s="1" t="n">
-        <v>611180</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="1" t="n">
-        <v>611180</v>
-      </c>
-      <c r="B307" s="1" t="n">
-        <v>612180</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F307" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="1" t="n">
-        <v>612180</v>
-      </c>
-      <c r="B308" s="1" t="n">
-        <v>615180</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="1" t="n">
-        <v>615180</v>
-      </c>
-      <c r="B309" s="1" t="n">
-        <v>617180</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F309" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H309" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="1" t="n">
-        <v>617180</v>
-      </c>
-      <c r="B310" s="1" t="n">
-        <v>624180</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="1" t="n">
-        <v>624180</v>
-      </c>
-      <c r="B311" s="1" t="n">
-        <v>625180</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F311" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="1" t="n">
-        <v>625180</v>
-      </c>
-      <c r="B312" s="1" t="n">
-        <v>628180</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F312" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="1" t="n">
-        <v>628180</v>
-      </c>
-      <c r="B313" s="1" t="n">
-        <v>629180</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="1" t="n">
-        <v>629180</v>
-      </c>
-      <c r="B314" s="1" t="n">
-        <v>630180</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E314" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="1" t="n">
-        <v>630180</v>
-      </c>
-      <c r="B315" s="1" t="n">
-        <v>633180</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F315" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="1" t="n">
-        <v>633180</v>
-      </c>
-      <c r="B316" s="1" t="n">
-        <v>634180</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F316" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="1" t="n">
-        <v>634180</v>
-      </c>
-      <c r="B317" s="1" t="n">
-        <v>636180</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="1" t="n">
-        <v>636180</v>
-      </c>
-      <c r="B318" s="1" t="n">
-        <v>637180</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="1" t="n">
-        <v>637180</v>
-      </c>
-      <c r="B319" s="1" t="n">
-        <v>639180</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="1" t="n">
-        <v>639180</v>
-      </c>
-      <c r="B320" s="1" t="n">
-        <v>640180</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F320" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="1" t="n">
-        <v>640180</v>
-      </c>
-      <c r="B321" s="1" t="n">
-        <v>641180</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F321" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="1" t="n">
-        <v>641180</v>
-      </c>
-      <c r="B322" s="1" t="n">
-        <v>642180</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="1" t="n">
-        <v>642180</v>
-      </c>
-      <c r="B323" s="1" t="n">
-        <v>644180</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="1" t="n">
-        <v>644180</v>
-      </c>
-      <c r="B324" s="1" t="n">
-        <v>645180</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="1" t="n">
-        <v>645180</v>
-      </c>
-      <c r="B325" s="1" t="n">
-        <v>646180</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="1" t="n">
-        <v>646180</v>
-      </c>
-      <c r="B326" s="1" t="n">
-        <v>650340</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="1" t="n">
-        <v>650340</v>
-      </c>
-      <c r="B327" s="1" t="n">
-        <v>660340</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="1" t="n">
-        <v>650340</v>
-      </c>
-      <c r="B328" s="1" t="n">
-        <v>660340</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H328" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="1" t="n">
-        <v>650340</v>
-      </c>
-      <c r="B329" s="1" t="n">
-        <v>660340</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="1" t="n">
-        <v>650340</v>
-      </c>
-      <c r="B330" s="1" t="n">
-        <v>660340</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E330" s="1" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="1" t="n">
-        <v>660340</v>
-      </c>
-      <c r="B331" s="1" t="n">
-        <v>670340</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F331" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="1" t="n">
-        <v>660340</v>
-      </c>
-      <c r="B332" s="1" t="n">
-        <v>670340</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="1" t="n">
-        <v>660340</v>
-      </c>
-      <c r="B333" s="1" t="n">
-        <v>670340</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F333" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="1" t="n">
-        <v>660340</v>
-      </c>
-      <c r="B334" s="1" t="n">
-        <v>670340</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H334" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="1" t="n">
-        <v>670340</v>
-      </c>
-      <c r="B335" s="1" t="n">
-        <v>674580</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="1" t="n">
-        <v>670340</v>
-      </c>
-      <c r="B336" s="1" t="n">
-        <v>674580</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F336" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="1" t="n">
-        <v>674580</v>
-      </c>
-      <c r="B337" s="1" t="n">
-        <v>675580</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E337" s="1" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="1" t="n">
-        <v>675580</v>
-      </c>
-      <c r="B338" s="1" t="n">
-        <v>678580</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F338" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="1" t="n">
-        <v>678580</v>
-      </c>
-      <c r="B339" s="1" t="n">
-        <v>680580</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="1" t="n">
-        <v>680580</v>
-      </c>
-      <c r="B340" s="1" t="n">
-        <v>681580</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="1" t="n">
-        <v>681580</v>
-      </c>
-      <c r="B341" s="1" t="n">
-        <v>683580</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="1" t="n">
-        <v>683580</v>
-      </c>
-      <c r="B342" s="1" t="n">
-        <v>685580</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F342" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H342" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="1" t="n">
-        <v>685580</v>
-      </c>
-      <c r="B343" s="1" t="n">
-        <v>686580</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="1" t="n">
-        <v>686580</v>
-      </c>
-      <c r="B344" s="1" t="n">
-        <v>687580</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D344" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F344" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="1" t="n">
-        <v>687580</v>
-      </c>
-      <c r="B345" s="1" t="n">
-        <v>688580</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="1" t="n">
-        <v>688580</v>
-      </c>
-      <c r="B346" s="1" t="n">
-        <v>690580</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="1" t="n">
-        <v>690580</v>
-      </c>
-      <c r="B347" s="1" t="n">
-        <v>692580</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E347" s="1" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="1" t="n">
-        <v>692580</v>
-      </c>
-      <c r="B348" s="1" t="n">
-        <v>693580</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F348" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="1" t="n">
-        <v>693580</v>
-      </c>
-      <c r="B349" s="1" t="n">
-        <v>694580</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F349" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="1" t="n">
-        <v>694580</v>
-      </c>
-      <c r="B350" s="1" t="n">
-        <v>695580</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="1" t="n">
-        <v>695580</v>
-      </c>
-      <c r="B351" s="1" t="n">
-        <v>697580</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="1" t="n">
-        <v>697580</v>
-      </c>
-      <c r="B352" s="1" t="n">
-        <v>698580</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F352" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H352" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="1" t="n">
-        <v>698580</v>
-      </c>
-      <c r="B353" s="1" t="n">
-        <v>703580</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F353" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="1" t="n">
-        <v>698580</v>
-      </c>
-      <c r="B354" s="1" t="n">
-        <v>703580</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F354" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="2" t="n">
-        <v>698580</v>
-      </c>
-      <c r="B355" s="2" t="n">
-        <v>703580</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E355" s="1"/>
-      <c r="F355" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G355" s="1"/>
-      <c r="H355" s="1"/>
-      <c r="I355" s="1"/>
-      <c r="J355" s="1"/>
-      <c r="K355" s="1"/>
-      <c r="L355" s="1"/>
-      <c r="M355" s="1"/>
-      <c r="N355" s="1"/>
-      <c r="O355" s="1"/>
-      <c r="P355" s="1"/>
-      <c r="Q355" s="1"/>
-      <c r="R355" s="1"/>
-      <c r="S355" s="1"/>
-      <c r="T355" s="1"/>
-      <c r="U355" s="1"/>
-      <c r="V355" s="1"/>
-      <c r="W355" s="1"/>
-      <c r="X355" s="1"/>
-      <c r="Y355" s="1"/>
-      <c r="Z355" s="1"/>
-    </row>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="1" t="n">
-        <v>703580</v>
-      </c>
-      <c r="B356" s="1" t="n">
-        <v>704580</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="1" t="n">
-        <v>704580</v>
-      </c>
-      <c r="B357" s="1" t="n">
-        <v>705580</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E357" s="1" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="1" t="n">
-        <v>705580</v>
-      </c>
-      <c r="B358" s="1" t="n">
-        <v>710580</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F358" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="1" t="n">
-        <v>710580</v>
-      </c>
-      <c r="B359" s="1" t="n">
-        <v>711580</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="1" t="n">
-        <v>711580</v>
-      </c>
-      <c r="B360" s="1" t="n">
-        <v>713580</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F360" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="1" t="n">
-        <v>713580</v>
-      </c>
-      <c r="B361" s="1" t="n">
-        <v>717580</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F361" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H361" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="1" t="n">
-        <v>717580</v>
-      </c>
-      <c r="B362" s="1" t="n">
-        <v>720580</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="1" t="n">
-        <v>717580</v>
-      </c>
-      <c r="B363" s="1" t="n">
-        <v>720580</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F363" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="1" t="n">
-        <v>720580</v>
-      </c>
-      <c r="B364" s="1" t="n">
-        <v>724580</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D364" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E364" s="1"/>
-    </row>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="1" t="n">
-        <v>724580</v>
-      </c>
-      <c r="B365" s="1" t="n">
-        <v>727580</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="1" t="n">
-        <v>727580</v>
-      </c>
-      <c r="B366" s="1" t="n">
-        <v>729580</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="1" t="n">
-        <v>729580</v>
-      </c>
-      <c r="B367" s="1" t="n">
-        <v>733580</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D367" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="1" t="n">
-        <v>733580</v>
-      </c>
-      <c r="B368" s="1" t="n">
-        <v>734580</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="1" t="n">
-        <v>734580</v>
-      </c>
-      <c r="B369" s="1" t="n">
-        <v>738580</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="1" t="n">
-        <v>738580</v>
-      </c>
-      <c r="B370" s="1" t="n">
-        <v>740580</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="1" t="n">
-        <v>740580</v>
-      </c>
-      <c r="B371" s="1" t="n">
-        <v>744580</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="1" t="n">
-        <v>744580</v>
-      </c>
-      <c r="B372" s="1" t="n">
-        <v>746580</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="1" t="n">
-        <v>746580</v>
-      </c>
-      <c r="B373" s="1" t="n">
-        <v>750580</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="1" t="n">
-        <v>750580</v>
-      </c>
-      <c r="B374" s="1" t="n">
-        <v>753580</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D374" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="1" t="n">
-        <v>753580</v>
-      </c>
-      <c r="B375" s="1" t="n">
-        <v>754580</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D375" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="1" t="n">
-        <v>754580</v>
-      </c>
-      <c r="B376" s="1" t="n">
-        <v>756580</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D376" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="1" t="n">
-        <v>756580</v>
-      </c>
-      <c r="B377" s="1" t="n">
+      <c r="D377" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="2" t="n">
         <v>757580</v>
       </c>
-      <c r="C377" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D377" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="1" t="n">
-        <v>757580</v>
-      </c>
-      <c r="B378" s="1" t="n">
+      <c r="B378" s="2" t="n">
         <v>760260</v>
       </c>
-      <c r="C378" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D378" s="1" t="s">
+      <c r="C378" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D378" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="1" t="n">
+      <c r="A379" s="2" t="n">
         <v>760260</v>
       </c>
-      <c r="B379" s="1" t="n">
+      <c r="B379" s="2" t="n">
         <v>761260</v>
       </c>
-      <c r="C379" s="1" t="s">
+      <c r="C379" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D379" s="1" t="s">
+      <c r="D379" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="1" t="n">
+      <c r="A380" s="2" t="n">
         <v>761260</v>
       </c>
-      <c r="B380" s="1" t="n">
+      <c r="B380" s="2" t="n">
         <v>762260</v>
       </c>
-      <c r="C380" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D380" s="1" t="s">
+      <c r="C380" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D380" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="1" t="n">
+      <c r="A381" s="2" t="n">
         <v>762260</v>
       </c>
-      <c r="B381" s="1" t="n">
+      <c r="B381" s="2" t="n">
         <v>764460</v>
       </c>
-      <c r="C381" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D381" s="1" t="s">
+      <c r="C381" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D381" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="1" t="n">
+      <c r="A382" s="2" t="n">
         <v>764460</v>
       </c>
-      <c r="B382" s="1" t="n">
+      <c r="B382" s="2" t="n">
         <v>769580</v>
       </c>
-      <c r="C382" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D382" s="1" t="s">
+      <c r="C382" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D382" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data/expt_2/raw_transcripts/game72.xlsx
+++ b/data/expt_2/raw_transcripts/game72.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="328">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">on_topic</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Alright, now you're on camera and if you ever want to leave the game, just let me know, okay?</t>
   </si>
   <si>
@@ -356,6 +359,9 @@
   </si>
   <si>
     <t xml:space="preserve">An apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, did you hear that?</t>
@@ -1222,18 +1228,18 @@
   </sheetPr>
   <dimension ref="A1:Z382"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H311" activeCellId="0" sqref="H311"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E364" activeCellId="0" sqref="E364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="55.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="37.63"/>
   </cols>
   <sheetData>
@@ -1262,6 +1268,9 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -1271,10 +1280,10 @@
         <v>4240</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1285,10 +1294,10 @@
         <v>5240</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1299,10 +1308,10 @@
         <v>7240</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,10 +1322,10 @@
         <v>8240</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1327,10 +1336,10 @@
         <v>9240</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,10 +1350,10 @@
         <v>11760</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,10 +1364,10 @@
         <v>12760</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,10 +1378,10 @@
         <v>15760</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,10 +1392,10 @@
         <v>17880</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,10 +1406,10 @@
         <v>20400</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1411,10 +1420,10 @@
         <v>24400</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,10 +1434,10 @@
         <v>27400</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,10 +1448,10 @@
         <v>28400</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,10 +1462,10 @@
         <v>29400</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1467,10 +1476,10 @@
         <v>30400</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,10 +1490,10 @@
         <v>31400</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,10 +1504,10 @@
         <v>35400</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,10 +1518,10 @@
         <v>39400</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,10 +1532,10 @@
         <v>41400</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,10 +1546,10 @@
         <v>43400</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,10 +1560,10 @@
         <v>45400</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,10 +1574,10 @@
         <v>47400</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,10 +1588,10 @@
         <v>50400</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,10 +1602,10 @@
         <v>56400</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1607,10 +1616,10 @@
         <v>58400</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1621,10 +1630,10 @@
         <v>59400</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,10 +1644,10 @@
         <v>61400</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1649,10 +1658,10 @@
         <v>64400</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1663,10 +1672,10 @@
         <v>66400</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,10 +1686,10 @@
         <v>70400</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1691,10 +1700,10 @@
         <v>73400</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,10 +1714,10 @@
         <v>74400</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1719,10 +1728,10 @@
         <v>77400</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,10 +1742,10 @@
         <v>79400</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,10 +1756,10 @@
         <v>83400</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1761,10 +1770,10 @@
         <v>85400</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1775,10 +1784,10 @@
         <v>86400</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,10 +1798,10 @@
         <v>87400</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,10 +1812,10 @@
         <v>89400</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1817,10 +1826,10 @@
         <v>94400</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,10 +1840,10 @@
         <v>95400</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,10 +1854,10 @@
         <v>98400</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,10 +1868,10 @@
         <v>103400</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,10 +1882,10 @@
         <v>106060</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,10 +1896,10 @@
         <v>106060</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,10 +1910,10 @@
         <v>107640</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,10 +1924,10 @@
         <v>110240</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,10 +1938,10 @@
         <v>112680</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1943,10 +1952,10 @@
         <v>115080</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,10 +1966,10 @@
         <v>116080</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,10 +1980,10 @@
         <v>118720</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1985,10 +1994,10 @@
         <v>120280</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1999,10 +2008,10 @@
         <v>121660</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2013,10 +2022,10 @@
         <v>124940</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,10 +2036,10 @@
         <v>128060</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2041,10 +2050,10 @@
         <v>130500</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,10 +2064,10 @@
         <v>134540</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,10 +2078,10 @@
         <v>137620</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,10 +2092,10 @@
         <v>139240</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,10 +2106,10 @@
         <v>141760</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2111,10 +2120,10 @@
         <v>143520</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2125,10 +2134,10 @@
         <v>146080</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2139,10 +2148,10 @@
         <v>150300</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,10 +2162,10 @@
         <v>151220</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,10 +2176,10 @@
         <v>156340</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2181,10 +2190,10 @@
         <v>159240</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2195,10 +2204,10 @@
         <v>162180</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,10 +2218,10 @@
         <v>163320</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,10 +2232,10 @@
         <v>164660</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2237,10 +2246,10 @@
         <v>165160</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2251,10 +2260,10 @@
         <v>168940</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,10 +2274,10 @@
         <v>172920</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,10 +2288,10 @@
         <v>176040</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2293,10 +2302,10 @@
         <v>178100</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2307,10 +2316,10 @@
         <v>182240</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2321,10 +2330,10 @@
         <v>186260</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,10 +2344,10 @@
         <v>187260</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2349,10 +2358,10 @@
         <v>190720</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,10 +2372,10 @@
         <v>191960</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2377,10 +2386,10 @@
         <v>193760</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2391,10 +2400,10 @@
         <v>195680</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2405,10 +2414,10 @@
         <v>196680</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2419,10 +2428,10 @@
         <v>199680</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2433,10 +2442,10 @@
         <v>200680</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,10 +2456,10 @@
         <v>202680</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" s="2" t="n">
         <v>0</v>
@@ -2464,14 +2473,14 @@
         <v>202680</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,10 +2491,10 @@
         <v>204680</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2496,13 +2505,13 @@
         <v>204680</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,10 +2522,10 @@
         <v>207680</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2527,10 +2536,10 @@
         <v>209680</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,10 +2550,10 @@
         <v>213680</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,10 +2564,10 @@
         <v>216680</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,10 +2578,10 @@
         <v>220680</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2583,10 +2592,10 @@
         <v>223680</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2597,10 +2606,10 @@
         <v>228680</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2611,13 +2620,13 @@
         <v>228680</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2628,10 +2637,10 @@
         <v>233680</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2642,13 +2651,13 @@
         <v>233680</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2659,10 +2668,10 @@
         <v>238680</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,10 +2682,10 @@
         <v>243680</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2687,13 +2696,13 @@
         <v>243680</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2704,13 +2713,13 @@
         <v>245680</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,10 +2730,10 @@
         <v>252680</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,10 +2744,10 @@
         <v>256680</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2749,16 +2758,19 @@
         <v>256680</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="I106" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,10 +2781,10 @@
         <v>259680</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,13 +2795,13 @@
         <v>260680</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2800,10 +2812,10 @@
         <v>262680</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2814,13 +2826,16 @@
         <v>263680</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I110" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,13 +2846,16 @@
         <v>264680</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2848,13 +2866,13 @@
         <v>266680</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2865,10 +2883,10 @@
         <v>268680</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2879,10 +2897,10 @@
         <v>270680</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" s="2" t="n">
         <v>1</v>
@@ -2896,10 +2914,10 @@
         <v>271680</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2910,10 +2928,10 @@
         <v>276680</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,10 +2942,10 @@
         <v>278680</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2938,16 +2956,19 @@
         <v>281680</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2958,10 +2979,10 @@
         <v>282680</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2972,13 +2993,16 @@
         <v>284680</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2989,10 +3013,10 @@
         <v>287680</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3003,10 +3027,10 @@
         <v>290680</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,13 +3041,13 @@
         <v>292680</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3034,13 +3058,13 @@
         <v>294680</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,13 +3075,13 @@
         <v>295680</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,13 +3092,13 @@
         <v>298680</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3085,13 +3109,13 @@
         <v>299680</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,10 +3126,10 @@
         <v>302680</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3116,13 +3140,13 @@
         <v>303680</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3133,13 +3157,13 @@
         <v>304680</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,10 +3174,10 @@
         <v>306680</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,13 +3188,13 @@
         <v>307680</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3181,13 +3205,13 @@
         <v>308680</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3198,10 +3222,10 @@
         <v>309680</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,10 +3236,10 @@
         <v>310680</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" s="2" t="n">
         <v>2</v>
@@ -3229,10 +3253,10 @@
         <v>311680</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,10 +3267,10 @@
         <v>312680</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,10 +3281,10 @@
         <v>315680</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3271,13 +3295,16 @@
         <v>317680</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I139" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,16 +3315,19 @@
         <v>318680</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="I140" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3308,10 +3338,10 @@
         <v>319680</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3322,10 +3352,10 @@
         <v>320680</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,13 +3366,16 @@
         <v>321680</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I143" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3353,10 +3386,10 @@
         <v>323680</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,13 +3400,16 @@
         <v>324680</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I145" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,13 +3420,16 @@
         <v>324680</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I146" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3401,13 +3440,16 @@
         <v>325680</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I147" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,13 +3460,16 @@
         <v>325680</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I148" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3435,10 +3480,10 @@
         <v>326680</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" s="2" t="n">
         <v>3</v>
@@ -3452,10 +3497,10 @@
         <v>329680</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3466,10 +3511,10 @@
         <v>331680</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3480,13 +3525,16 @@
         <v>333680</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I152" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3497,16 +3545,19 @@
         <v>333680</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="I153" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3517,10 +3568,10 @@
         <v>334680</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,13 +3582,13 @@
         <v>338680</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3548,10 +3599,10 @@
         <v>339680</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,10 +3613,10 @@
         <v>341840</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,10 +3627,10 @@
         <v>343680</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,13 +3641,16 @@
         <v>346680</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I159" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3607,13 +3661,16 @@
         <v>346680</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I160" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3624,13 +3681,16 @@
         <v>346680</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I161" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,10 +3701,10 @@
         <v>348680</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3655,10 +3715,10 @@
         <v>350680</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3669,13 +3729,16 @@
         <v>353680</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I164" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3686,10 +3749,10 @@
         <v>356680</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" s="2" t="n">
         <v>4</v>
@@ -3703,10 +3766,10 @@
         <v>358680</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3717,13 +3780,13 @@
         <v>359680</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,10 +3797,10 @@
         <v>360680</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3748,16 +3811,19 @@
         <v>361680</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="I169" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3768,10 +3834,10 @@
         <v>362680</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3782,10 +3848,10 @@
         <v>364680</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3796,10 +3862,10 @@
         <v>366680</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3810,13 +3876,16 @@
         <v>368680</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I173" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3827,10 +3896,10 @@
         <v>369680</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3841,13 +3910,16 @@
         <v>371680</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I175" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3858,10 +3930,10 @@
         <v>373680</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3872,13 +3944,16 @@
         <v>374680</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I177" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3889,13 +3964,16 @@
         <v>375680</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I178" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3906,13 +3984,16 @@
         <v>376680</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I179" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3923,10 +4004,10 @@
         <v>377680</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3937,13 +4018,16 @@
         <v>378680</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I181" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3954,10 +4038,10 @@
         <v>379680</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" s="2" t="n">
         <v>5</v>
@@ -3971,13 +4055,13 @@
         <v>380680</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3988,10 +4072,10 @@
         <v>381680</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4002,10 +4086,10 @@
         <v>382680</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4016,10 +4100,10 @@
         <v>384680</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,13 +4114,16 @@
         <v>386680</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I187" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4047,10 +4134,10 @@
         <v>387680</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4061,15 +4148,18 @@
         <v>388680</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H189" s="2"/>
+      <c r="I189" s="0" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="n">
@@ -4079,10 +4169,10 @@
         <v>390920</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4093,10 +4183,10 @@
         <v>394920</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" s="2" t="n">
         <v>6</v>
@@ -4110,14 +4200,14 @@
         <v>394920</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4128,10 +4218,10 @@
         <v>396440</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4142,10 +4232,10 @@
         <v>398440</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4156,16 +4246,19 @@
         <v>399440</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="I195" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4176,10 +4269,10 @@
         <v>400440</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4190,13 +4283,16 @@
         <v>401440</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I197" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4207,13 +4303,16 @@
         <v>402440</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I198" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4224,13 +4323,16 @@
         <v>403440</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I199" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4241,13 +4343,16 @@
         <v>404440</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I200" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,13 +4363,16 @@
         <v>405440</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I201" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4275,13 +4383,16 @@
         <v>407440</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I202" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4292,13 +4403,16 @@
         <v>409440</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I203" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4309,10 +4423,10 @@
         <v>410440</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" s="2"/>
     </row>
@@ -4324,13 +4438,16 @@
         <v>412440</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I205" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4341,10 +4458,10 @@
         <v>415020</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" s="2" t="n">
         <v>7</v>
@@ -4358,10 +4475,10 @@
         <v>417260</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4372,10 +4489,10 @@
         <v>418020</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4386,13 +4503,16 @@
         <v>420480</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I209" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4403,10 +4523,10 @@
         <v>423660</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4417,10 +4537,10 @@
         <v>424460</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4431,10 +4551,10 @@
         <v>428380</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4445,16 +4565,19 @@
         <v>430660</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="I213" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4465,10 +4588,10 @@
         <v>431260</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4479,13 +4602,16 @@
         <v>434580</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I215" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,13 +4622,16 @@
         <v>435460</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I216" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4513,13 +4642,16 @@
         <v>437580</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I217" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4530,10 +4662,10 @@
         <v>439180</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" s="2" t="n">
         <v>8</v>
@@ -4547,10 +4679,10 @@
         <v>441060</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4561,13 +4693,13 @@
         <v>441260</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4578,10 +4710,10 @@
         <v>443180</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4592,13 +4724,13 @@
         <v>444180</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4609,10 +4741,10 @@
         <v>445180</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4623,16 +4755,19 @@
         <v>446180</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="I224" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4643,10 +4778,10 @@
         <v>447180</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4657,13 +4792,13 @@
         <v>449180</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4674,13 +4809,16 @@
         <v>450180</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I227" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4691,13 +4829,13 @@
         <v>450180</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4708,13 +4846,16 @@
         <v>451180</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I229" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4725,10 +4866,10 @@
         <v>453180</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4739,13 +4880,13 @@
         <v>454180</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4756,10 +4897,10 @@
         <v>457180</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4770,13 +4911,16 @@
         <v>459180</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I233" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,10 +4931,10 @@
         <v>460180</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4801,13 +4945,13 @@
         <v>461180</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E235" s="2" t="n">
         <v>9</v>
-      </c>
-      <c r="E235" s="2" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4818,10 +4962,10 @@
         <v>463180</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4832,13 +4976,16 @@
         <v>466180</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I237" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4849,13 +4996,16 @@
         <v>468180</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I238" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4866,13 +5016,16 @@
         <v>472180</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I239" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,10 +5036,10 @@
         <v>475420</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4897,16 +5050,19 @@
         <v>477500</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="I241" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4917,10 +5073,10 @@
         <v>480180</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4931,13 +5087,13 @@
         <v>482940</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E243" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4948,13 +5104,13 @@
         <v>483940</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4965,10 +5121,10 @@
         <v>488940</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4979,16 +5135,19 @@
         <v>489940</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="I246" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4999,13 +5158,16 @@
         <v>490940</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I247" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5016,10 +5178,10 @@
         <v>490940</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5030,16 +5192,19 @@
         <v>491940</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
+      </c>
+      <c r="I249" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5050,16 +5215,19 @@
         <v>492940</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
+      </c>
+      <c r="I250" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5070,13 +5238,16 @@
         <v>494940</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I251" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5087,13 +5258,16 @@
         <v>494940</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I252" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5104,13 +5278,16 @@
         <v>495940</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I253" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5121,10 +5298,10 @@
         <v>495940</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5135,13 +5312,16 @@
         <v>496940</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I255" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5152,10 +5332,10 @@
         <v>500580</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5166,13 +5346,13 @@
         <v>501780</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E257" s="2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5183,13 +5363,16 @@
         <v>503340</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I258" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5200,10 +5383,10 @@
         <v>505640</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5214,13 +5397,13 @@
         <v>506900</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5231,10 +5414,10 @@
         <v>507300</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,10 +5428,10 @@
         <v>509240</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5259,13 +5442,16 @@
         <v>510720</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I263" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5276,10 +5462,10 @@
         <v>515740</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5290,13 +5476,16 @@
         <v>517040</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I265" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5307,10 +5496,10 @@
         <v>519080</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5321,13 +5510,13 @@
         <v>522180</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5338,10 +5527,10 @@
         <v>524080</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5352,10 +5541,10 @@
         <v>525180</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5366,10 +5555,10 @@
         <v>526180</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5380,13 +5569,16 @@
         <v>527180</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I271" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5397,13 +5589,16 @@
         <v>529180</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I272" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5414,10 +5609,10 @@
         <v>534180</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5428,13 +5623,16 @@
         <v>535180</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I274" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5445,13 +5643,16 @@
         <v>535180</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I275" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5462,10 +5663,10 @@
         <v>536180</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5476,10 +5677,10 @@
         <v>538180</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5490,13 +5691,13 @@
         <v>538180</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5507,10 +5708,10 @@
         <v>539180</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5521,13 +5722,16 @@
         <v>549180</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I280" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5538,13 +5742,16 @@
         <v>549180</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I281" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5555,13 +5762,16 @@
         <v>551180</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I282" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5572,10 +5782,10 @@
         <v>556180</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5586,13 +5796,13 @@
         <v>557180</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5603,10 +5813,10 @@
         <v>560180</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5617,16 +5827,19 @@
         <v>561180</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
+      </c>
+      <c r="I286" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5637,10 +5850,10 @@
         <v>563180</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5651,13 +5864,13 @@
         <v>569180</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E288" s="2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5668,10 +5881,10 @@
         <v>569180</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5682,13 +5895,13 @@
         <v>572180</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5699,10 +5912,10 @@
         <v>575180</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5713,16 +5926,19 @@
         <v>576180</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="I292" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5733,10 +5949,10 @@
         <v>577180</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5747,13 +5963,16 @@
         <v>578180</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E294" s="2" t="n">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="I294" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5764,10 +5983,10 @@
         <v>580180</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5778,14 +5997,12 @@
         <v>585180</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H296" s="2" t="s">
-        <v>183</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H296" s="2"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="2" t="n">
@@ -5795,13 +6012,19 @@
         <v>587180</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I297" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5812,13 +6035,13 @@
         <v>589180</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E298" s="2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5829,13 +6052,16 @@
         <v>597180</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I299" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5846,13 +6072,16 @@
         <v>598180</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I300" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5863,13 +6092,16 @@
         <v>600180</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I301" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5880,10 +6112,10 @@
         <v>604180</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5894,13 +6126,13 @@
         <v>606180</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5911,10 +6143,10 @@
         <v>608180</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5925,13 +6157,13 @@
         <v>609180</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5942,10 +6174,10 @@
         <v>611180</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5956,13 +6188,16 @@
         <v>612180</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I307" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5973,10 +6208,10 @@
         <v>615180</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5987,15 +6222,18 @@
         <v>617180</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H309" s="2"/>
+      <c r="I309" s="0" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="2" t="n">
@@ -6005,10 +6243,10 @@
         <v>624180</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6019,13 +6257,16 @@
         <v>625180</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I311" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6036,13 +6277,13 @@
         <v>628180</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6053,10 +6294,10 @@
         <v>629180</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6067,10 +6308,10 @@
         <v>630180</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E314" s="2" t="n">
         <v>15</v>
@@ -6084,13 +6325,13 @@
         <v>633180</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6101,13 +6342,13 @@
         <v>634180</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6118,10 +6359,10 @@
         <v>636180</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6132,13 +6373,13 @@
         <v>637180</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6149,10 +6390,10 @@
         <v>639180</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6163,13 +6404,13 @@
         <v>640180</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6180,13 +6421,13 @@
         <v>641180</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6197,10 +6438,10 @@
         <v>642180</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6211,13 +6452,13 @@
         <v>644180</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6228,10 +6469,10 @@
         <v>645180</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6242,10 +6483,10 @@
         <v>646180</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6256,10 +6497,10 @@
         <v>650340</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6270,10 +6511,10 @@
         <v>660340</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6284,16 +6525,19 @@
         <v>660340</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H328" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="I328" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6304,10 +6548,10 @@
         <v>660340</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6318,10 +6562,10 @@
         <v>660340</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E330" s="2" t="n">
         <v>16</v>
@@ -6335,13 +6579,16 @@
         <v>670340</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I331" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6352,10 +6599,10 @@
         <v>670340</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6366,13 +6613,16 @@
         <v>670340</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I333" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6383,16 +6633,19 @@
         <v>670340</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="I334" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6403,10 +6656,10 @@
         <v>674580</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6417,13 +6670,13 @@
         <v>674580</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6434,10 +6687,10 @@
         <v>675580</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E337" s="2" t="n">
         <v>17</v>
@@ -6451,13 +6704,13 @@
         <v>678580</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6468,10 +6721,10 @@
         <v>680580</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6482,10 +6735,10 @@
         <v>681580</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6496,10 +6749,10 @@
         <v>683580</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6510,16 +6763,19 @@
         <v>685580</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H342" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
+      </c>
+      <c r="I342" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6530,10 +6786,10 @@
         <v>686580</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6544,13 +6800,16 @@
         <v>687580</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I344" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6561,10 +6820,10 @@
         <v>688580</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6575,10 +6834,10 @@
         <v>690580</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6589,10 +6848,10 @@
         <v>692580</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E347" s="2" t="n">
         <v>18</v>
@@ -6606,13 +6865,13 @@
         <v>693580</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6623,13 +6882,13 @@
         <v>694580</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6640,10 +6899,10 @@
         <v>695580</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6654,10 +6913,10 @@
         <v>697580</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6668,16 +6927,19 @@
         <v>698580</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
+      </c>
+      <c r="I352" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6688,13 +6950,13 @@
         <v>703580</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6705,13 +6967,16 @@
         <v>703580</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I354" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6722,18 +6987,20 @@
         <v>703580</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E355" s="2"/>
       <c r="F355" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
-      <c r="I355" s="2"/>
+      <c r="I355" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
       <c r="L355" s="2"/>
@@ -6760,10 +7027,10 @@
         <v>704580</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6774,10 +7041,10 @@
         <v>705580</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E357" s="2" t="n">
         <v>19</v>
@@ -6791,13 +7058,13 @@
         <v>710580</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6808,10 +7075,10 @@
         <v>711580</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6822,13 +7089,13 @@
         <v>713580</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6839,16 +7106,19 @@
         <v>717580</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H361" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="I361" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6859,10 +7129,10 @@
         <v>720580</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6873,13 +7143,13 @@
         <v>720580</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6890,10 +7160,10 @@
         <v>724580</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E364" s="2"/>
     </row>
@@ -6905,10 +7175,13 @@
         <v>727580</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6919,10 +7192,16 @@
         <v>729580</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I366" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6933,10 +7212,10 @@
         <v>733580</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6947,10 +7226,10 @@
         <v>734580</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6961,10 +7240,10 @@
         <v>738580</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6975,10 +7254,13 @@
         <v>740580</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6989,10 +7271,13 @@
         <v>744580</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7003,10 +7288,13 @@
         <v>746580</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7017,10 +7305,13 @@
         <v>750580</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7031,10 +7322,10 @@
         <v>753580</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7045,10 +7336,10 @@
         <v>754580</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7059,10 +7350,10 @@
         <v>756580</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7073,10 +7364,10 @@
         <v>757580</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7087,10 +7378,10 @@
         <v>760260</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7101,10 +7392,10 @@
         <v>761260</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7115,10 +7406,10 @@
         <v>762260</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7129,10 +7420,10 @@
         <v>764460</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7143,10 +7434,13 @@
         <v>769580</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data/expt_2/raw_transcripts/game72.xlsx
+++ b/data/expt_2/raw_transcripts/game72.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="328">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -1229,9 +1229,9 @@
   <dimension ref="A1:Z382"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E364" activeCellId="0" sqref="E364"/>
+      <selection pane="bottomLeft" activeCell="F296" activeCellId="0" sqref="F296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1268,7 +1268,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       <c r="H106" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I106" s="0" t="s">
+      <c r="I106" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
       <c r="F110" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I110" s="0" t="s">
+      <c r="I110" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       <c r="F111" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I111" s="0" t="s">
+      <c r="I111" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2888,6 +2888,9 @@
       <c r="D113" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F113" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="n">
@@ -2967,7 +2970,7 @@
       <c r="H118" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I118" s="0" t="s">
+      <c r="I118" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3001,7 +3004,7 @@
       <c r="F120" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I120" s="0" t="s">
+      <c r="I120" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3303,7 +3306,7 @@
       <c r="F139" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I139" s="0" t="s">
+      <c r="I139" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3326,7 +3329,7 @@
       <c r="H140" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I140" s="0" t="s">
+      <c r="I140" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3374,7 +3377,7 @@
       <c r="F143" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I143" s="0" t="s">
+      <c r="I143" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3408,7 +3411,7 @@
       <c r="F145" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I145" s="0" t="s">
+      <c r="I145" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3428,7 +3431,7 @@
       <c r="F146" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I146" s="0" t="s">
+      <c r="I146" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3448,7 +3451,7 @@
       <c r="F147" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I147" s="0" t="s">
+      <c r="I147" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3468,7 +3471,7 @@
       <c r="F148" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I148" s="0" t="s">
+      <c r="I148" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3533,7 +3536,7 @@
       <c r="F152" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I152" s="0" t="s">
+      <c r="I152" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3556,7 +3559,7 @@
       <c r="H153" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I153" s="0" t="s">
+      <c r="I153" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3649,7 +3652,7 @@
       <c r="F159" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I159" s="0" t="s">
+      <c r="I159" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3669,7 +3672,7 @@
       <c r="F160" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I160" s="0" t="s">
+      <c r="I160" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3689,7 +3692,7 @@
       <c r="F161" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I161" s="0" t="s">
+      <c r="I161" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3737,7 +3740,7 @@
       <c r="F164" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I164" s="0" t="s">
+      <c r="I164" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3822,7 +3825,7 @@
       <c r="H169" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I169" s="0" t="s">
+      <c r="I169" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3884,7 +3887,7 @@
       <c r="F173" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I173" s="0" t="s">
+      <c r="I173" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3918,7 +3921,7 @@
       <c r="F175" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I175" s="0" t="s">
+      <c r="I175" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3952,7 +3955,7 @@
       <c r="F177" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I177" s="0" t="s">
+      <c r="I177" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3972,7 +3975,7 @@
       <c r="F178" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I178" s="0" t="s">
+      <c r="I178" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3992,7 +3995,7 @@
       <c r="F179" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I179" s="0" t="s">
+      <c r="I179" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4026,7 +4029,7 @@
       <c r="F181" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I181" s="0" t="s">
+      <c r="I181" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4122,7 +4125,7 @@
       <c r="F187" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I187" s="0" t="s">
+      <c r="I187" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4157,7 +4160,7 @@
         <v>107</v>
       </c>
       <c r="H189" s="2"/>
-      <c r="I189" s="0" t="s">
+      <c r="I189" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4257,7 +4260,7 @@
       <c r="H195" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I195" s="0" t="s">
+      <c r="I195" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4291,7 +4294,7 @@
       <c r="F197" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I197" s="0" t="s">
+      <c r="I197" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4311,7 +4314,7 @@
       <c r="F198" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I198" s="0" t="s">
+      <c r="I198" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4331,7 +4334,7 @@
       <c r="F199" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I199" s="0" t="s">
+      <c r="I199" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4351,7 +4354,7 @@
       <c r="F200" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I200" s="0" t="s">
+      <c r="I200" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4371,7 +4374,7 @@
       <c r="F201" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I201" s="0" t="s">
+      <c r="I201" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4391,7 +4394,7 @@
       <c r="F202" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I202" s="0" t="s">
+      <c r="I202" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4411,7 +4414,7 @@
       <c r="F203" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I203" s="0" t="s">
+      <c r="I203" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4446,7 +4449,7 @@
       <c r="F205" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I205" s="0" t="s">
+      <c r="I205" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4511,7 +4514,7 @@
       <c r="F209" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I209" s="0" t="s">
+      <c r="I209" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4576,7 +4579,7 @@
       <c r="H213" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="I213" s="0" t="s">
+      <c r="I213" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4610,7 +4613,7 @@
       <c r="F215" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I215" s="0" t="s">
+      <c r="I215" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4630,7 +4633,7 @@
       <c r="F216" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I216" s="0" t="s">
+      <c r="I216" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4650,7 +4653,7 @@
       <c r="F217" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I217" s="0" t="s">
+      <c r="I217" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4766,7 +4769,7 @@
       <c r="H224" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I224" s="0" t="s">
+      <c r="I224" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4817,7 +4820,7 @@
       <c r="F227" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I227" s="0" t="s">
+      <c r="I227" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4854,7 +4857,7 @@
       <c r="F229" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I229" s="0" t="s">
+      <c r="I229" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4919,7 +4922,7 @@
       <c r="F233" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I233" s="0" t="s">
+      <c r="I233" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4984,7 +4987,7 @@
       <c r="F237" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I237" s="0" t="s">
+      <c r="I237" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5004,7 +5007,7 @@
       <c r="F238" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I238" s="0" t="s">
+      <c r="I238" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5024,7 +5027,7 @@
       <c r="F239" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I239" s="0" t="s">
+      <c r="I239" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5061,7 +5064,7 @@
       <c r="H241" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I241" s="0" t="s">
+      <c r="I241" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5146,7 +5149,7 @@
       <c r="H246" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I246" s="0" t="s">
+      <c r="I246" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5166,7 +5169,7 @@
       <c r="F247" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I247" s="0" t="s">
+      <c r="I247" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5203,7 +5206,7 @@
       <c r="H249" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I249" s="0" t="s">
+      <c r="I249" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5226,7 +5229,7 @@
       <c r="H250" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I250" s="0" t="s">
+      <c r="I250" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5246,7 +5249,7 @@
       <c r="F251" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I251" s="0" t="s">
+      <c r="I251" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5266,7 +5269,7 @@
       <c r="F252" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I252" s="0" t="s">
+      <c r="I252" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5286,7 +5289,7 @@
       <c r="F253" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I253" s="0" t="s">
+      <c r="I253" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5320,7 +5323,7 @@
       <c r="F255" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I255" s="0" t="s">
+      <c r="I255" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5371,7 +5374,7 @@
       <c r="F258" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I258" s="0" t="s">
+      <c r="I258" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5450,7 +5453,7 @@
       <c r="F263" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I263" s="0" t="s">
+      <c r="I263" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5484,7 +5487,7 @@
       <c r="F265" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I265" s="0" t="s">
+      <c r="I265" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5577,7 +5580,7 @@
       <c r="F271" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I271" s="0" t="s">
+      <c r="I271" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5597,7 +5600,7 @@
       <c r="F272" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I272" s="0" t="s">
+      <c r="I272" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5631,7 +5634,7 @@
       <c r="F274" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I274" s="0" t="s">
+      <c r="I274" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5651,7 +5654,7 @@
       <c r="F275" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I275" s="0" t="s">
+      <c r="I275" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5713,6 +5716,9 @@
       <c r="D279" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F279" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="2" t="n">
@@ -5730,7 +5736,7 @@
       <c r="F280" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I280" s="0" t="s">
+      <c r="I280" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5750,7 +5756,7 @@
       <c r="F281" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I281" s="0" t="s">
+      <c r="I281" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5770,7 +5776,7 @@
       <c r="F282" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I282" s="0" t="s">
+      <c r="I282" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5838,7 +5844,7 @@
       <c r="H286" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="I286" s="0" t="s">
+      <c r="I286" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5886,6 +5892,9 @@
       <c r="D289" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F289" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="2" t="n">
@@ -5937,7 +5946,7 @@
       <c r="H292" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I292" s="0" t="s">
+      <c r="I292" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5971,7 +5980,10 @@
       <c r="E294" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="I294" s="0" t="s">
+      <c r="F294" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I294" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6023,7 +6035,7 @@
       <c r="H297" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I297" s="0" t="s">
+      <c r="I297" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6060,7 +6072,7 @@
       <c r="F299" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I299" s="0" t="s">
+      <c r="I299" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6080,7 +6092,7 @@
       <c r="F300" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I300" s="0" t="s">
+      <c r="I300" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6100,7 +6112,7 @@
       <c r="F301" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I301" s="0" t="s">
+      <c r="I301" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6196,7 +6208,7 @@
       <c r="F307" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I307" s="0" t="s">
+      <c r="I307" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6231,7 +6243,7 @@
         <v>91</v>
       </c>
       <c r="H309" s="2"/>
-      <c r="I309" s="0" t="s">
+      <c r="I309" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6265,7 +6277,7 @@
       <c r="F311" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I311" s="0" t="s">
+      <c r="I311" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6536,7 +6548,7 @@
       <c r="H328" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="I328" s="0" t="s">
+      <c r="I328" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6587,7 +6599,7 @@
       <c r="F331" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I331" s="0" t="s">
+      <c r="I331" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6621,7 +6633,7 @@
       <c r="F333" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I333" s="0" t="s">
+      <c r="I333" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6644,7 +6656,7 @@
       <c r="H334" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I334" s="0" t="s">
+      <c r="I334" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6774,7 +6786,7 @@
       <c r="H342" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="I342" s="0" t="s">
+      <c r="I342" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6808,7 +6820,7 @@
       <c r="F344" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I344" s="0" t="s">
+      <c r="I344" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6938,7 +6950,7 @@
       <c r="H352" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="I352" s="0" t="s">
+      <c r="I352" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6975,7 +6987,7 @@
       <c r="F354" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I354" s="0" t="s">
+      <c r="I354" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7117,7 +7129,7 @@
       <c r="H361" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I361" s="0" t="s">
+      <c r="I361" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7200,7 +7212,7 @@
       <c r="F366" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I366" s="0" t="s">
+      <c r="I366" s="1" t="s">
         <v>113</v>
       </c>
     </row>

--- a/data/expt_2/raw_transcripts/game72.xlsx
+++ b/data/expt_2/raw_transcripts/game72.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="330">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -829,6 +829,9 @@
     <t xml:space="preserve">Away. Away. Away.</t>
   </si>
   <si>
+    <t xml:space="preserve">away</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Is that what, is that what you black box, [id132]?</t>
   </si>
   <si>
@@ -881,6 +884,9 @@
   </si>
   <si>
     <t xml:space="preserve">um a airplane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A airplane</t>
   </si>
   <si>
     <t xml:space="preserve">okay do you want tap that?</t>
@@ -1229,9 +1235,9 @@
   <dimension ref="A1:Z382"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F296" activeCellId="0" sqref="F296"/>
+      <selection pane="bottomLeft" activeCell="H302" activeCellId="0" sqref="H302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5146,9 +5152,7 @@
       <c r="F246" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H246" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="H246" s="2"/>
       <c r="I246" s="1" t="s">
         <v>113</v>
       </c>
@@ -6112,6 +6116,9 @@
       <c r="F301" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="H301" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="I301" s="1" t="s">
         <v>113</v>
       </c>
@@ -6124,7 +6131,7 @@
         <v>604180</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>10</v>
@@ -6138,7 +6145,7 @@
         <v>606180</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>16</v>
@@ -6155,7 +6162,7 @@
         <v>608180</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>10</v>
@@ -6186,7 +6193,7 @@
         <v>611180</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>10</v>
@@ -6200,7 +6207,7 @@
         <v>612180</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>16</v>
@@ -6220,7 +6227,7 @@
         <v>615180</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>10</v>
@@ -6234,7 +6241,7 @@
         <v>617180</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>16</v>
@@ -6255,7 +6262,7 @@
         <v>624180</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>10</v>
@@ -6269,7 +6276,7 @@
         <v>625180</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>12</v>
@@ -6289,7 +6296,7 @@
         <v>628180</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>12</v>
@@ -6337,7 +6344,7 @@
         <v>633180</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>16</v>
@@ -6354,7 +6361,7 @@
         <v>634180</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>12</v>
@@ -6371,7 +6378,7 @@
         <v>636180</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>10</v>
@@ -6402,7 +6409,7 @@
         <v>639180</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>10</v>
@@ -6495,7 +6502,7 @@
         <v>646180</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>10</v>
@@ -6509,7 +6516,7 @@
         <v>650340</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>10</v>
@@ -6523,7 +6530,7 @@
         <v>660340</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>10</v>
@@ -6537,7 +6544,7 @@
         <v>660340</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>12</v>
@@ -6546,7 +6553,7 @@
         <v>91</v>
       </c>
       <c r="H328" s="2" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="I328" s="1" t="s">
         <v>113</v>
@@ -6560,7 +6567,7 @@
         <v>660340</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>10</v>
@@ -6574,7 +6581,7 @@
         <v>660340</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>10</v>
@@ -6591,7 +6598,7 @@
         <v>670340</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>16</v>
@@ -6611,7 +6618,7 @@
         <v>670340</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>10</v>
@@ -6625,7 +6632,7 @@
         <v>670340</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>12</v>
@@ -6668,7 +6675,7 @@
         <v>674580</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>10</v>
@@ -6682,7 +6689,7 @@
         <v>674580</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>12</v>
@@ -6716,7 +6723,7 @@
         <v>678580</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>16</v>
@@ -6733,7 +6740,7 @@
         <v>680580</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>10</v>
@@ -6747,7 +6754,7 @@
         <v>681580</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>10</v>
@@ -6761,7 +6768,7 @@
         <v>683580</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>10</v>
@@ -6784,7 +6791,7 @@
         <v>91</v>
       </c>
       <c r="H342" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I342" s="1" t="s">
         <v>113</v>
@@ -6798,7 +6805,7 @@
         <v>686580</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>10</v>
@@ -6812,7 +6819,7 @@
         <v>687580</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>16</v>
@@ -6846,7 +6853,7 @@
         <v>690580</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>10</v>
@@ -6860,7 +6867,7 @@
         <v>692580</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>10</v>
@@ -6877,7 +6884,7 @@
         <v>693580</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>12</v>
@@ -6894,7 +6901,7 @@
         <v>694580</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>16</v>
@@ -6939,7 +6946,7 @@
         <v>698580</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>16</v>
@@ -6948,7 +6955,7 @@
         <v>91</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I352" s="1" t="s">
         <v>113</v>
@@ -6962,7 +6969,7 @@
         <v>703580</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>16</v>
@@ -6979,7 +6986,7 @@
         <v>703580</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>12</v>
@@ -6999,7 +7006,7 @@
         <v>703580</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>16</v>
@@ -7070,7 +7077,7 @@
         <v>710580</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>16</v>
@@ -7101,7 +7108,7 @@
         <v>713580</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>16</v>
@@ -7118,7 +7125,7 @@
         <v>717580</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>12</v>
@@ -7141,7 +7148,7 @@
         <v>720580</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>10</v>
@@ -7155,7 +7162,7 @@
         <v>720580</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>16</v>
@@ -7172,7 +7179,7 @@
         <v>724580</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>10</v>
@@ -7187,7 +7194,7 @@
         <v>727580</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>16</v>
@@ -7204,7 +7211,7 @@
         <v>729580</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>12</v>
@@ -7224,7 +7231,7 @@
         <v>733580</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>10</v>
@@ -7238,7 +7245,7 @@
         <v>734580</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>10</v>
@@ -7252,7 +7259,7 @@
         <v>738580</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>10</v>
@@ -7266,7 +7273,7 @@
         <v>740580</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>12</v>
@@ -7283,7 +7290,7 @@
         <v>744580</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>16</v>
@@ -7300,7 +7307,7 @@
         <v>746580</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>16</v>
@@ -7334,7 +7341,7 @@
         <v>753580</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>10</v>
@@ -7348,7 +7355,7 @@
         <v>754580</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>10</v>
@@ -7390,7 +7397,7 @@
         <v>760260</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>10</v>
@@ -7418,7 +7425,7 @@
         <v>762260</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>10</v>
@@ -7432,7 +7439,7 @@
         <v>764460</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>10</v>
@@ -7446,7 +7453,7 @@
         <v>769580</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>16</v>
